--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,19 +629,19 @@
         <v>0.999980171782183</v>
       </c>
       <c r="D3">
+        <v>0.999980171782183</v>
+      </c>
+      <c r="E3">
+        <v>1.000043624086896</v>
+      </c>
+      <c r="F3">
+        <v>0.9999471246621394</v>
+      </c>
+      <c r="G3">
         <v>1.000079314395988</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.999980171782183</v>
-      </c>
-      <c r="F3">
-        <v>0.999980171782183</v>
-      </c>
-      <c r="G3">
-        <v>0.9999471246621394</v>
-      </c>
-      <c r="H3">
-        <v>1.000043624086896</v>
       </c>
       <c r="I3">
         <v>0.999980171782183</v>
@@ -788,7 +680,7 @@
         <v>1.000001763081929</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,19 +691,19 @@
         <v>0.9999617214304334</v>
       </c>
       <c r="D4">
+        <v>0.9999617214304334</v>
+      </c>
+      <c r="E4">
+        <v>1.0000842147005</v>
+      </c>
+      <c r="F4">
+        <v>0.9998979232219442</v>
+      </c>
+      <c r="G4">
         <v>1.000153118317757</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>0.9999617214304334</v>
-      </c>
-      <c r="F4">
-        <v>0.9999617214304334</v>
-      </c>
-      <c r="G4">
-        <v>0.999897923221944</v>
-      </c>
-      <c r="H4">
-        <v>1.0000842147005</v>
       </c>
       <c r="I4">
         <v>0.9999617214304334</v>
@@ -850,7 +742,7 @@
         <v>1.000003403421917</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,19 +753,19 @@
         <v>0.9999266428769422</v>
       </c>
       <c r="D5">
+        <v>0.9999266428769422</v>
+      </c>
+      <c r="E5">
+        <v>1.000161384725473</v>
+      </c>
+      <c r="F5">
+        <v>0.999804380945402</v>
+      </c>
+      <c r="G5">
         <v>1.000293431993086</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.9999266428769422</v>
-      </c>
-      <c r="F5">
-        <v>0.9999266428769422</v>
-      </c>
-      <c r="G5">
-        <v>0.999804380945402</v>
-      </c>
-      <c r="H5">
-        <v>1.000161384725473</v>
       </c>
       <c r="I5">
         <v>0.9999266428769422</v>
@@ -912,7 +804,7 @@
         <v>1.000006521049131</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,19 +815,19 @@
         <v>0.9998924065422335</v>
       </c>
       <c r="D6">
+        <v>0.9998924065422335</v>
+      </c>
+      <c r="E6">
+        <v>1.000236702246668</v>
+      </c>
+      <c r="F6">
+        <v>0.9997130870210771</v>
+      </c>
+      <c r="G6">
         <v>1.000430375573291</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.9998924065422335</v>
-      </c>
-      <c r="F6">
-        <v>0.9998924065422335</v>
-      </c>
-      <c r="G6">
-        <v>0.9997130870210771</v>
-      </c>
-      <c r="H6">
-        <v>1.000236702246668</v>
       </c>
       <c r="I6">
         <v>0.9998924065422335</v>
@@ -974,7 +866,7 @@
         <v>1.000009564077956</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999999283388992</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="D7">
+        <v>0.9999992833889924</v>
+      </c>
+      <c r="E7">
+        <v>1.000001579326332</v>
+      </c>
+      <c r="F7">
+        <v>0.9999980883835965</v>
+      </c>
+      <c r="G7">
         <v>1.000002868811986</v>
       </c>
-      <c r="E7">
-        <v>0.999999283388992</v>
-      </c>
-      <c r="F7">
-        <v>0.999999283388992</v>
-      </c>
-      <c r="G7">
-        <v>0.9999980883835965</v>
-      </c>
       <c r="H7">
-        <v>1.000001579326332</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="I7">
-        <v>0.999999283388992</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="J7">
         <v>1.000002868811986</v>
       </c>
       <c r="K7">
-        <v>0.999999283388992</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="L7">
-        <v>0.999999283388992</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="M7">
         <v>1.000001076100489</v>
@@ -1027,16 +919,16 @@
         <v>1.00000047852999</v>
       </c>
       <c r="R7">
-        <v>1.00000017974474</v>
+        <v>1.000000179744741</v>
       </c>
       <c r="S7">
-        <v>1.00000017974474</v>
+        <v>1.000000179744741</v>
       </c>
       <c r="T7">
         <v>1.000000064448148</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,19 +939,19 @@
         <v>1.00000039235269</v>
       </c>
       <c r="D8">
+        <v>1.00000039235269</v>
+      </c>
+      <c r="E8">
+        <v>0.9999991394554139</v>
+      </c>
+      <c r="F8">
+        <v>1.000001045778407</v>
+      </c>
+      <c r="G8">
         <v>0.9999984326946321</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.00000039235269</v>
-      </c>
-      <c r="F8">
-        <v>1.00000039235269</v>
-      </c>
-      <c r="G8">
-        <v>1.000001045778407</v>
-      </c>
-      <c r="H8">
-        <v>0.9999991394554139</v>
       </c>
       <c r="I8">
         <v>1.00000039235269</v>
@@ -1098,7 +990,7 @@
         <v>0.9999999658310871</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,19 +1001,19 @@
         <v>1.000001311355535</v>
       </c>
       <c r="D9">
+        <v>1.000001311355535</v>
+      </c>
+      <c r="E9">
+        <v>0.9999971188694063</v>
+      </c>
+      <c r="F9">
+        <v>1.000003494999058</v>
+      </c>
+      <c r="G9">
         <v>0.9999947593669105</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.000001311355535</v>
-      </c>
-      <c r="F9">
-        <v>1.000001311355535</v>
-      </c>
-      <c r="G9">
-        <v>1.000003494999058</v>
-      </c>
-      <c r="H9">
-        <v>0.9999971188694063</v>
       </c>
       <c r="I9">
         <v>1.000001311355535</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999998845503297</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,19 +1063,19 @@
         <v>1.000001979378572</v>
       </c>
       <c r="D10">
+        <v>1.000001979378572</v>
+      </c>
+      <c r="E10">
+        <v>0.9999956455091746</v>
+      </c>
+      <c r="F10">
+        <v>1.000005279647578</v>
+      </c>
+      <c r="G10">
         <v>0.9999920833433978</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.000001979378572</v>
-      </c>
-      <c r="F10">
-        <v>1.000001979378572</v>
-      </c>
-      <c r="G10">
-        <v>1.000005279647578</v>
-      </c>
-      <c r="H10">
-        <v>0.9999956455091746</v>
       </c>
       <c r="I10">
         <v>1.000001979378572</v>
@@ -1222,7 +1114,7 @@
         <v>0.9999998244393112</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,19 +1125,19 @@
         <v>1.000006300335654</v>
       </c>
       <c r="D11">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="E11">
+        <v>0.9999861410078257</v>
+      </c>
+      <c r="F11">
+        <v>1.000016801146604</v>
+      </c>
+      <c r="G11">
         <v>0.9999747978908444</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.000006300335654</v>
-      </c>
-      <c r="F11">
-        <v>1.000006300335654</v>
-      </c>
-      <c r="G11">
-        <v>1.000016801146604</v>
-      </c>
-      <c r="H11">
-        <v>0.9999861410078257</v>
       </c>
       <c r="I11">
         <v>1.000006300335654</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999994401753728</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,19 +1187,19 @@
         <v>0.9996038835824849</v>
       </c>
       <c r="D12">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="E12">
+        <v>1.000871462401954</v>
+      </c>
+      <c r="F12">
+        <v>0.9989436836861949</v>
+      </c>
+      <c r="G12">
         <v>1.00158447801317</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.9996038835824849</v>
-      </c>
-      <c r="F12">
-        <v>0.9996038835824849</v>
-      </c>
-      <c r="G12">
-        <v>0.9989436836861949</v>
-      </c>
-      <c r="H12">
-        <v>1.000871462401954</v>
       </c>
       <c r="I12">
         <v>0.9996038835824849</v>
@@ -1346,7 +1238,7 @@
         <v>1.000035212474796</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,19 +1249,19 @@
         <v>0.9998964493929572</v>
       </c>
       <c r="D13">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="E13">
+        <v>1.000227815231654</v>
+      </c>
+      <c r="F13">
+        <v>0.9997238617926409</v>
+      </c>
+      <c r="G13">
         <v>1.000414203344274</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.9998964493929572</v>
-      </c>
-      <c r="F13">
-        <v>0.9998964493929572</v>
-      </c>
-      <c r="G13">
-        <v>0.9997238617926408</v>
-      </c>
-      <c r="H13">
-        <v>1.000227815231654</v>
       </c>
       <c r="I13">
         <v>0.9998964493929572</v>
@@ -1408,7 +1300,7 @@
         <v>1.000009204757907</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,19 +1311,19 @@
         <v>0.9990088213878943</v>
       </c>
       <c r="D14">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="E14">
+        <v>1.002180598738788</v>
+      </c>
+      <c r="F14">
+        <v>0.9973568568408632</v>
+      </c>
+      <c r="G14">
         <v>1.003964713376434</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.9990088213878943</v>
-      </c>
-      <c r="F14">
-        <v>0.9990088213878943</v>
-      </c>
-      <c r="G14">
-        <v>0.9973568568408632</v>
-      </c>
-      <c r="H14">
-        <v>1.002180598738788</v>
       </c>
       <c r="I14">
         <v>0.9990088213878943</v>
@@ -1470,7 +1362,7 @@
         <v>1.000088105519961</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,19 +1373,19 @@
         <v>0.9997296356041152</v>
       </c>
       <c r="D15">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="E15">
+        <v>1.000594802802129</v>
+      </c>
+      <c r="F15">
+        <v>0.9992790312211202</v>
+      </c>
+      <c r="G15">
         <v>1.001081464766156</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9997296356041152</v>
-      </c>
-      <c r="F15">
-        <v>0.9997296356041152</v>
-      </c>
-      <c r="G15">
-        <v>0.9992790312211202</v>
-      </c>
-      <c r="H15">
-        <v>1.000594802802129</v>
       </c>
       <c r="I15">
         <v>0.9997296356041152</v>
@@ -1532,7 +1424,7 @@
         <v>1.000024034266959</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999999191518042</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="D16">
-        <v>1.000000325826955</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="E16">
-        <v>0.9999999191518042</v>
+        <v>1.000849890288569</v>
       </c>
       <c r="F16">
-        <v>0.9999999191518042</v>
+        <v>0.998969831075786</v>
       </c>
       <c r="G16">
-        <v>0.9999997837136962</v>
+        <v>1.001545257583497</v>
       </c>
       <c r="H16">
-        <v>1.000000180683925</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="I16">
-        <v>0.9999999191518042</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="J16">
-        <v>1.000000325826955</v>
+        <v>1.001545257583497</v>
       </c>
       <c r="K16">
-        <v>0.9999999191518042</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="L16">
-        <v>0.9999999191518042</v>
+        <v>0.9996136831285399</v>
       </c>
       <c r="M16">
-        <v>1.00000012248938</v>
+        <v>1.000579470356018</v>
       </c>
       <c r="N16">
-        <v>1.00000012248938</v>
+        <v>1.000579470356018</v>
       </c>
       <c r="O16">
-        <v>1.000000141887561</v>
+        <v>1.000669610333535</v>
       </c>
       <c r="P16">
-        <v>1.000000054710188</v>
+        <v>1.000257541280192</v>
       </c>
       <c r="Q16">
-        <v>1.000000054710188</v>
+        <v>1.000257541280192</v>
       </c>
       <c r="R16">
-        <v>1.000000020820592</v>
+        <v>1.000096576742279</v>
       </c>
       <c r="S16">
-        <v>1.000000020820592</v>
+        <v>1.000096576742279</v>
       </c>
       <c r="T16">
-        <v>1.000000007946665</v>
+        <v>1.000034338055579</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999982671232656</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="D17">
-        <v>1.000006934838652</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="E17">
-        <v>0.9999982671232656</v>
+        <v>1.000692279322872</v>
       </c>
       <c r="F17">
-        <v>0.9999982671232656</v>
+        <v>0.999160874118996</v>
       </c>
       <c r="G17">
-        <v>0.9999953776582708</v>
+        <v>1.001258691647685</v>
       </c>
       <c r="H17">
-        <v>1.000003815553753</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="I17">
-        <v>0.9999982671232656</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="J17">
-        <v>1.000006934838652</v>
+        <v>1.001258691647685</v>
       </c>
       <c r="K17">
-        <v>0.9999982671232656</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="L17">
-        <v>0.9999982671232656</v>
+        <v>0.9996853256071981</v>
       </c>
       <c r="M17">
-        <v>1.000002600980959</v>
+        <v>1.000472008627441</v>
       </c>
       <c r="N17">
-        <v>1.000002600980959</v>
+        <v>1.000472008627441</v>
       </c>
       <c r="O17">
-        <v>1.000003005838557</v>
+        <v>1.000545432192585</v>
       </c>
       <c r="P17">
-        <v>1.000001156361728</v>
+        <v>1.000209780954027</v>
       </c>
       <c r="Q17">
-        <v>1.000001156361728</v>
+        <v>1.000209780954027</v>
       </c>
       <c r="R17">
-        <v>1.000000434052112</v>
+        <v>1.00007866711732</v>
       </c>
       <c r="S17">
-        <v>1.000000434052112</v>
+        <v>1.00007866711732</v>
       </c>
       <c r="T17">
-        <v>1.000000154903412</v>
+        <v>1.000027970318524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999938954744853</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="D18">
-        <v>1.000024421440363</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="E18">
-        <v>0.9999938954744853</v>
+        <v>1.000369358881908</v>
       </c>
       <c r="F18">
-        <v>0.9999938954744853</v>
+        <v>0.9995522911440498</v>
       </c>
       <c r="G18">
-        <v>0.9999837214469741</v>
+        <v>1.000671565847894</v>
       </c>
       <c r="H18">
-        <v>1.000013432662646</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="I18">
-        <v>0.9999938954744853</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="J18">
-        <v>1.000024421440363</v>
+        <v>1.000671565847894</v>
       </c>
       <c r="K18">
-        <v>0.9999938954744853</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="L18">
-        <v>0.9999938954744853</v>
+        <v>0.9998321085842742</v>
       </c>
       <c r="M18">
-        <v>1.000009158457424</v>
+        <v>1.000251837216084</v>
       </c>
       <c r="N18">
-        <v>1.000009158457424</v>
+        <v>1.000251837216084</v>
       </c>
       <c r="O18">
-        <v>1.000010583192498</v>
+        <v>1.000291011104692</v>
       </c>
       <c r="P18">
-        <v>1.000004070796445</v>
+        <v>1.000111927672148</v>
       </c>
       <c r="Q18">
-        <v>1.000004070796445</v>
+        <v>1.000111927672148</v>
       </c>
       <c r="R18">
-        <v>1.000001526965955</v>
+        <v>1.000041972900179</v>
       </c>
       <c r="S18">
-        <v>1.000001526965955</v>
+        <v>1.000041972900179</v>
       </c>
       <c r="T18">
-        <v>1.00000054366224</v>
+        <v>1.000014923604446</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="D19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="E19">
+        <v>1.000385114014229</v>
+      </c>
+      <c r="F19">
+        <v>0.999533190054775</v>
+      </c>
+      <c r="G19">
+        <v>1.000700218190711</v>
+      </c>
+      <c r="H19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="I19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="J19">
+        <v>1.000700218190711</v>
+      </c>
+      <c r="K19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="L19">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="M19">
+        <v>1.000262583960333</v>
+      </c>
+      <c r="N19">
+        <v>1.000262583960333</v>
+      </c>
+      <c r="O19">
+        <v>1.000303427311631</v>
+      </c>
+      <c r="P19">
+        <v>1.000116705883541</v>
+      </c>
+      <c r="Q19">
+        <v>1.000116705883541</v>
+      </c>
+      <c r="R19">
+        <v>1.000043766845144</v>
+      </c>
+      <c r="S19">
+        <v>1.000043766845144</v>
+      </c>
+      <c r="T19">
+        <v>1.000015561908263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="D20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="E20">
+        <v>1.000000180683925</v>
+      </c>
+      <c r="F20">
+        <v>0.9999997837136962</v>
+      </c>
+      <c r="G20">
+        <v>1.000000325826955</v>
+      </c>
+      <c r="H20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="I20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="J20">
+        <v>1.000000325826955</v>
+      </c>
+      <c r="K20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="L20">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="M20">
+        <v>1.00000012248938</v>
+      </c>
+      <c r="N20">
+        <v>1.00000012248938</v>
+      </c>
+      <c r="O20">
+        <v>1.000000141887561</v>
+      </c>
+      <c r="P20">
+        <v>1.000000054710188</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000054710188</v>
+      </c>
+      <c r="R20">
+        <v>1.000000020820592</v>
+      </c>
+      <c r="S20">
+        <v>1.000000020820592</v>
+      </c>
+      <c r="T20">
+        <v>1.000000007946665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="D21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="E21">
+        <v>1.000003815553753</v>
+      </c>
+      <c r="F21">
+        <v>0.9999953776582707</v>
+      </c>
+      <c r="G21">
+        <v>1.000006934838652</v>
+      </c>
+      <c r="H21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="I21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="J21">
+        <v>1.000006934838652</v>
+      </c>
+      <c r="K21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="L21">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="M21">
+        <v>1.000002600980959</v>
+      </c>
+      <c r="N21">
+        <v>1.000002600980959</v>
+      </c>
+      <c r="O21">
+        <v>1.000003005838557</v>
+      </c>
+      <c r="P21">
+        <v>1.000001156361728</v>
+      </c>
+      <c r="Q21">
+        <v>1.000001156361728</v>
+      </c>
+      <c r="R21">
+        <v>1.000000434052112</v>
+      </c>
+      <c r="S21">
+        <v>1.000000434052112</v>
+      </c>
+      <c r="T21">
+        <v>1.000000154903412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="D22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="E22">
+        <v>1.000013432662646</v>
+      </c>
+      <c r="F22">
+        <v>0.9999837214469739</v>
+      </c>
+      <c r="G22">
+        <v>1.000024421440363</v>
+      </c>
+      <c r="H22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="I22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="J22">
+        <v>1.000024421440363</v>
+      </c>
+      <c r="K22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="L22">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="M22">
+        <v>1.000009158457424</v>
+      </c>
+      <c r="N22">
+        <v>1.000009158457424</v>
+      </c>
+      <c r="O22">
+        <v>1.000010583192498</v>
+      </c>
+      <c r="P22">
+        <v>1.000004070796445</v>
+      </c>
+      <c r="Q22">
+        <v>1.000004070796445</v>
+      </c>
+      <c r="R22">
+        <v>1.000001526965955</v>
+      </c>
+      <c r="S22">
+        <v>1.000001526965955</v>
+      </c>
+      <c r="T22">
+        <v>1.00000054366224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9999856985161737</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9999856985161737</v>
+      </c>
+      <c r="E23">
+        <v>1.000031462464011</v>
+      </c>
+      <c r="F23">
+        <v>0.9999618615130893</v>
+      </c>
+      <c r="G23">
         <v>1.000057209768475</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.9999856985161737</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>0.9999856985161737</v>
       </c>
-      <c r="G19">
-        <v>0.9999618615130893</v>
-      </c>
-      <c r="H19">
-        <v>1.000031462464011</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
+        <v>1.000057209768475</v>
+      </c>
+      <c r="K23">
         <v>0.9999856985161737</v>
       </c>
-      <c r="J19">
-        <v>1.000057209768475</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>0.9999856985161737</v>
       </c>
-      <c r="L19">
-        <v>0.9999856985161737</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000021454142324</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000021454142324</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000024790249553</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000009535600274</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000009535600274</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000003576329249</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000003576329249</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000001271549016</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="D3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="E3">
-        <v>1.000043624086896</v>
+        <v>1.000363230511528</v>
       </c>
       <c r="F3">
-        <v>0.9999471246621394</v>
+        <v>0.9995597187463992</v>
       </c>
       <c r="G3">
-        <v>1.000079314395988</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="H3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="I3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="J3">
-        <v>1.000079314395988</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="K3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="L3">
-        <v>0.999980171782183</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="M3">
-        <v>1.000029743089085</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="N3">
-        <v>1.000029743089085</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="O3">
-        <v>1.000034370088356</v>
+        <v>1.000286182240635</v>
       </c>
       <c r="P3">
-        <v>1.000013219320118</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="Q3">
-        <v>1.000013219320118</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="R3">
-        <v>1.000004957435634</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="S3">
-        <v>1.000004957435634</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="T3">
-        <v>1.000001763081929</v>
+        <v>1.000014675964218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="D4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="E4">
-        <v>1.0000842147005</v>
+        <v>1.000370415569324</v>
       </c>
       <c r="F4">
-        <v>0.9998979232219442</v>
+        <v>0.9995510102851236</v>
       </c>
       <c r="G4">
-        <v>1.000153118317757</v>
+        <v>1.000673484208908</v>
       </c>
       <c r="H4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="I4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="J4">
-        <v>1.000153118317757</v>
+        <v>1.000673484208908</v>
       </c>
       <c r="K4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="L4">
-        <v>0.9999617214304334</v>
+        <v>0.9998316294260184</v>
       </c>
       <c r="M4">
-        <v>1.000057419874095</v>
+        <v>1.000252556817463</v>
       </c>
       <c r="N4">
-        <v>1.000057419874095</v>
+        <v>1.000252556817463</v>
       </c>
       <c r="O4">
-        <v>1.000066351482897</v>
+        <v>1.000291843068083</v>
       </c>
       <c r="P4">
-        <v>1.000025520392875</v>
+        <v>1.000112247686981</v>
       </c>
       <c r="Q4">
-        <v>1.000025520392875</v>
+        <v>1.000112247686981</v>
       </c>
       <c r="R4">
-        <v>1.000009570652264</v>
+        <v>1.000042093121741</v>
       </c>
       <c r="S4">
-        <v>1.000009570652264</v>
+        <v>1.000042093121741</v>
       </c>
       <c r="T4">
-        <v>1.000003403421917</v>
+        <v>1.000014966390235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="D5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="E5">
-        <v>1.000161384725473</v>
+        <v>1.000348797601078</v>
       </c>
       <c r="F5">
-        <v>0.999804380945402</v>
+        <v>0.999577213261456</v>
       </c>
       <c r="G5">
-        <v>1.000293431993086</v>
+        <v>1.000634182210244</v>
       </c>
       <c r="H5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="I5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="J5">
-        <v>1.000293431993086</v>
+        <v>1.000634182210244</v>
       </c>
       <c r="K5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="L5">
-        <v>0.9999266428769422</v>
+        <v>0.9998414559029646</v>
       </c>
       <c r="M5">
-        <v>1.000110037435014</v>
+        <v>1.000237819056604</v>
       </c>
       <c r="N5">
-        <v>1.000110037435014</v>
+        <v>1.000237819056604</v>
       </c>
       <c r="O5">
-        <v>1.0001271531985</v>
+        <v>1.000274811904762</v>
       </c>
       <c r="P5">
-        <v>1.000048905915657</v>
+        <v>1.000105698005391</v>
       </c>
       <c r="Q5">
-        <v>1.000048905915657</v>
+        <v>1.000105698005391</v>
       </c>
       <c r="R5">
-        <v>1.000018340155978</v>
+        <v>1.000039637479784</v>
       </c>
       <c r="S5">
-        <v>1.000018340155978</v>
+        <v>1.000039637479784</v>
       </c>
       <c r="T5">
-        <v>1.000006521049131</v>
+        <v>1.000014093463612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="D6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="E6">
-        <v>1.000236702246668</v>
+        <v>1.000334377784091</v>
       </c>
       <c r="F6">
-        <v>0.9997130870210771</v>
+        <v>0.9995946788068177</v>
       </c>
       <c r="G6">
-        <v>1.000430375573291</v>
+        <v>1.000607980227272</v>
       </c>
       <c r="H6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="I6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="J6">
-        <v>1.000430375573291</v>
+        <v>1.000607980227272</v>
       </c>
       <c r="K6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="L6">
-        <v>0.9998924065422335</v>
+        <v>0.999848005340909</v>
       </c>
       <c r="M6">
-        <v>1.000161391057762</v>
+        <v>1.00022799278409</v>
       </c>
       <c r="N6">
-        <v>1.000161391057762</v>
+        <v>1.00022799278409</v>
       </c>
       <c r="O6">
-        <v>1.000186494787398</v>
+        <v>1.000263454450757</v>
       </c>
       <c r="P6">
-        <v>1.000071729552586</v>
+        <v>1.00010133030303</v>
       </c>
       <c r="Q6">
-        <v>1.000071729552586</v>
+        <v>1.00010133030303</v>
       </c>
       <c r="R6">
-        <v>1.000026898799998</v>
+        <v>1.0000379990625</v>
       </c>
       <c r="S6">
-        <v>1.000026898799998</v>
+        <v>1.0000379990625</v>
       </c>
       <c r="T6">
-        <v>1.000009564077956</v>
+        <v>1.000013508806818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="D7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="E7">
-        <v>1.000001579326332</v>
+        <v>0.992968708936002</v>
       </c>
       <c r="F7">
-        <v>0.9999980883835965</v>
+        <v>1.008522781834905</v>
       </c>
       <c r="G7">
-        <v>1.000002868811986</v>
+        <v>0.9872158271262447</v>
       </c>
       <c r="H7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="I7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="J7">
-        <v>1.000002868811986</v>
+        <v>0.9872158271262447</v>
       </c>
       <c r="K7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="L7">
-        <v>0.9999992833889924</v>
+        <v>1.003196055410781</v>
       </c>
       <c r="M7">
-        <v>1.000001076100489</v>
+        <v>0.995205941268513</v>
       </c>
       <c r="N7">
-        <v>1.000001076100489</v>
+        <v>0.995205941268513</v>
       </c>
       <c r="O7">
-        <v>1.000001243842437</v>
+        <v>0.9944601971576761</v>
       </c>
       <c r="P7">
-        <v>1.00000047852999</v>
+        <v>0.9978693126492691</v>
       </c>
       <c r="Q7">
-        <v>1.00000047852999</v>
+        <v>0.9978693126492691</v>
       </c>
       <c r="R7">
-        <v>1.000000179744741</v>
+        <v>0.9992009983396473</v>
       </c>
       <c r="S7">
-        <v>1.000000179744741</v>
+        <v>0.9992009983396473</v>
       </c>
       <c r="T7">
-        <v>1.000000064448148</v>
+        <v>0.9997159140215827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="D8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="E8">
-        <v>0.9999991394554139</v>
+        <v>0.9929974386417181</v>
       </c>
       <c r="F8">
-        <v>1.000001045778407</v>
+        <v>1.008487957807861</v>
       </c>
       <c r="G8">
-        <v>0.9999984326946321</v>
+        <v>0.9872680631307793</v>
       </c>
       <c r="H8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="I8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="J8">
-        <v>0.9999984326946321</v>
+        <v>0.9872680631307793</v>
       </c>
       <c r="K8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="L8">
-        <v>1.00000039235269</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="M8">
-        <v>0.9999994125236611</v>
+        <v>0.9952255297228119</v>
       </c>
       <c r="N8">
-        <v>0.9999994125236611</v>
+        <v>0.9952255297228119</v>
       </c>
       <c r="O8">
-        <v>0.999999321500912</v>
+        <v>0.9944828326957805</v>
       </c>
       <c r="P8">
-        <v>0.9999997391333375</v>
+        <v>0.9978780185868228</v>
       </c>
       <c r="Q8">
-        <v>0.9999997391333375</v>
+        <v>0.9978780185868228</v>
       </c>
       <c r="R8">
-        <v>0.9999999024381756</v>
+        <v>0.9992042630188283</v>
       </c>
       <c r="S8">
-        <v>0.9999999024381756</v>
+        <v>0.9992042630188283</v>
       </c>
       <c r="T8">
-        <v>0.9999999658310871</v>
+        <v>0.9997170747541486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="D9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="E9">
-        <v>0.9999971188694063</v>
+        <v>0.9930267743936008</v>
       </c>
       <c r="F9">
-        <v>1.000003494999058</v>
+        <v>1.008452399059984</v>
       </c>
       <c r="G9">
-        <v>0.9999947593669105</v>
+        <v>0.987321401117263</v>
       </c>
       <c r="H9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="I9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="J9">
-        <v>0.9999947593669105</v>
+        <v>0.987321401117263</v>
       </c>
       <c r="K9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="L9">
-        <v>1.000001311355535</v>
+        <v>1.00316966174627</v>
       </c>
       <c r="M9">
-        <v>0.9999980353612226</v>
+        <v>0.9952455314317665</v>
       </c>
       <c r="N9">
-        <v>0.9999980353612226</v>
+        <v>0.9952455314317665</v>
       </c>
       <c r="O9">
-        <v>0.9999977298639505</v>
+        <v>0.9945059457523779</v>
       </c>
       <c r="P9">
-        <v>0.9999991273593265</v>
+        <v>0.9978869082032676</v>
       </c>
       <c r="Q9">
-        <v>0.9999991273593265</v>
+        <v>0.9978869082032676</v>
       </c>
       <c r="R9">
-        <v>0.9999996733583785</v>
+        <v>0.9992075965890183</v>
       </c>
       <c r="S9">
-        <v>0.9999996733583785</v>
+        <v>0.9992075965890183</v>
       </c>
       <c r="T9">
-        <v>0.9999998845503297</v>
+        <v>0.9997182599682763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="D10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="E10">
-        <v>0.9999956455091746</v>
+        <v>0.9930520449377418</v>
       </c>
       <c r="F10">
-        <v>1.000005279647578</v>
+        <v>1.008421767935193</v>
       </c>
       <c r="G10">
-        <v>0.9999920833433978</v>
+        <v>0.987367348048329</v>
       </c>
       <c r="H10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="I10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="J10">
-        <v>0.9999920833433978</v>
+        <v>0.987367348048329</v>
       </c>
       <c r="K10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="L10">
-        <v>1.000001979378572</v>
+        <v>1.003158174804164</v>
       </c>
       <c r="M10">
-        <v>0.9999970313609852</v>
+        <v>0.9952627614262464</v>
       </c>
       <c r="N10">
-        <v>0.9999970313609852</v>
+        <v>0.9952627614262464</v>
       </c>
       <c r="O10">
-        <v>0.9999965694103817</v>
+        <v>0.9945258559300783</v>
       </c>
       <c r="P10">
-        <v>0.9999986807001809</v>
+        <v>0.9978945658855521</v>
       </c>
       <c r="Q10">
-        <v>0.9999986807001809</v>
+        <v>0.9978945658855521</v>
       </c>
       <c r="R10">
-        <v>0.9999995053697788</v>
+        <v>0.999210468115205</v>
       </c>
       <c r="S10">
-        <v>0.9999995053697788</v>
+        <v>0.999210468115205</v>
       </c>
       <c r="T10">
-        <v>0.9999998244393112</v>
+        <v>0.999719280888959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="D11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="E11">
-        <v>0.9999861410078257</v>
+        <v>1.000019190950489</v>
       </c>
       <c r="F11">
-        <v>1.000016801146604</v>
+        <v>0.9999767419877152</v>
       </c>
       <c r="G11">
-        <v>0.9999747978908444</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="H11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="I11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="J11">
-        <v>0.9999747978908444</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="K11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="L11">
-        <v>1.000006300335654</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="M11">
-        <v>0.9999905491132492</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="N11">
-        <v>0.9999905491132492</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="O11">
-        <v>0.9999890797447747</v>
+        <v>1.000015119176744</v>
       </c>
       <c r="P11">
-        <v>0.9999957995207175</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="Q11">
-        <v>0.9999957995207175</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="R11">
-        <v>0.9999984247244517</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="S11">
-        <v>0.9999984247244517</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="T11">
-        <v>0.9999994401753728</v>
+        <v>1.00000077603467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="D12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="E12">
-        <v>1.000871462401954</v>
+        <v>0.9999845548108711</v>
       </c>
       <c r="F12">
-        <v>0.9989436836861949</v>
+        <v>1.000018724077183</v>
       </c>
       <c r="G12">
-        <v>1.00158447801317</v>
+        <v>0.9999719152650319</v>
       </c>
       <c r="H12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="I12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="J12">
-        <v>1.00158447801317</v>
+        <v>0.9999719152650319</v>
       </c>
       <c r="K12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="L12">
-        <v>0.9996038835824849</v>
+        <v>1.000007021761291</v>
       </c>
       <c r="M12">
-        <v>1.000594180797828</v>
+        <v>0.9999894685131616</v>
       </c>
       <c r="N12">
-        <v>1.000594180797828</v>
+        <v>0.9999894685131616</v>
       </c>
       <c r="O12">
-        <v>1.000686607999203</v>
+        <v>0.999987830612398</v>
       </c>
       <c r="P12">
-        <v>1.000264081726047</v>
+        <v>0.9999953195958714</v>
       </c>
       <c r="Q12">
-        <v>1.000264081726047</v>
+        <v>0.9999953195958714</v>
       </c>
       <c r="R12">
-        <v>1.000099032190156</v>
+        <v>0.9999982451372265</v>
       </c>
       <c r="S12">
-        <v>1.000099032190156</v>
+        <v>0.9999982451372265</v>
       </c>
       <c r="T12">
-        <v>1.000035212474796</v>
+        <v>0.9999993765728267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="D13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="E13">
-        <v>1.000227815231654</v>
+        <v>0.999934362857494</v>
       </c>
       <c r="F13">
-        <v>0.9997238617926409</v>
+        <v>1.000079562839182</v>
       </c>
       <c r="G13">
-        <v>1.000414203344274</v>
+        <v>0.9998806574895317</v>
       </c>
       <c r="H13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="I13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="J13">
-        <v>1.000414203344274</v>
+        <v>0.9998806574895317</v>
       </c>
       <c r="K13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="L13">
-        <v>0.9998964493929572</v>
+        <v>1.00002983710851</v>
       </c>
       <c r="M13">
-        <v>1.000155326368615</v>
+        <v>0.999955247299021</v>
       </c>
       <c r="N13">
-        <v>1.000155326368615</v>
+        <v>0.999955247299021</v>
       </c>
       <c r="O13">
-        <v>1.000179489322962</v>
+        <v>0.9999482858185119</v>
       </c>
       <c r="P13">
-        <v>1.000069034043396</v>
+        <v>0.9999801105688507</v>
       </c>
       <c r="Q13">
-        <v>1.000069034043396</v>
+        <v>0.9999801105688507</v>
       </c>
       <c r="R13">
-        <v>1.000025887880786</v>
+        <v>0.9999925422037655</v>
       </c>
       <c r="S13">
-        <v>1.000025887880786</v>
+        <v>0.9999925422037655</v>
       </c>
       <c r="T13">
-        <v>1.000009204757907</v>
+        <v>0.9999973490852896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="D14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="E14">
-        <v>1.002180598738788</v>
+        <v>1.000119403981513</v>
       </c>
       <c r="F14">
-        <v>0.9973568568408632</v>
+        <v>0.9998552676068684</v>
       </c>
       <c r="G14">
-        <v>1.003964713376434</v>
+        <v>1.00021710292217</v>
       </c>
       <c r="H14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="I14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="J14">
-        <v>1.003964713376434</v>
+        <v>1.00021710292217</v>
       </c>
       <c r="K14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="L14">
-        <v>0.9990088213878943</v>
+        <v>0.99994572312428</v>
       </c>
       <c r="M14">
-        <v>1.001486767382164</v>
+        <v>1.000081413023225</v>
       </c>
       <c r="N14">
-        <v>1.001486767382164</v>
+        <v>1.000081413023225</v>
       </c>
       <c r="O14">
-        <v>1.001718044501039</v>
+        <v>1.000094076675988</v>
       </c>
       <c r="P14">
-        <v>1.000660785384074</v>
+        <v>1.00003618305691</v>
       </c>
       <c r="Q14">
-        <v>1.000660785384074</v>
+        <v>1.00003618305691</v>
       </c>
       <c r="R14">
-        <v>1.000247794385029</v>
+        <v>1.000013568073753</v>
       </c>
       <c r="S14">
-        <v>1.000247794385029</v>
+        <v>1.000013568073753</v>
       </c>
       <c r="T14">
-        <v>1.000088105519961</v>
+        <v>1.000004823980565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="D15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="E15">
-        <v>1.000594802802129</v>
+        <v>1.000043624086896</v>
       </c>
       <c r="F15">
-        <v>0.9992790312211202</v>
+        <v>0.9999471246621394</v>
       </c>
       <c r="G15">
-        <v>1.001081464766156</v>
+        <v>1.000079314395988</v>
       </c>
       <c r="H15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="I15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="J15">
-        <v>1.001081464766156</v>
+        <v>1.000079314395988</v>
       </c>
       <c r="K15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="L15">
-        <v>0.9997296356041152</v>
+        <v>0.999980171782183</v>
       </c>
       <c r="M15">
-        <v>1.000405550185135</v>
+        <v>1.000029743089085</v>
       </c>
       <c r="N15">
-        <v>1.000405550185135</v>
+        <v>1.000029743089085</v>
       </c>
       <c r="O15">
-        <v>1.0004686343908</v>
+        <v>1.000034370088356</v>
       </c>
       <c r="P15">
-        <v>1.000180245324795</v>
+        <v>1.000013219320118</v>
       </c>
       <c r="Q15">
-        <v>1.000180245324795</v>
+        <v>1.000013219320118</v>
       </c>
       <c r="R15">
-        <v>1.000067592894625</v>
+        <v>1.000004957435634</v>
       </c>
       <c r="S15">
-        <v>1.000067592894625</v>
+        <v>1.000004957435634</v>
       </c>
       <c r="T15">
-        <v>1.000024034266959</v>
+        <v>1.000001763081929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="D16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="E16">
-        <v>1.000849890288569</v>
+        <v>1.0000842147005</v>
       </c>
       <c r="F16">
-        <v>0.998969831075786</v>
+        <v>0.9998979232219442</v>
       </c>
       <c r="G16">
-        <v>1.001545257583497</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="H16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="I16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="J16">
-        <v>1.001545257583497</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="K16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="L16">
-        <v>0.9996136831285399</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="M16">
-        <v>1.000579470356018</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="N16">
-        <v>1.000579470356018</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="O16">
-        <v>1.000669610333535</v>
+        <v>1.000066351482897</v>
       </c>
       <c r="P16">
-        <v>1.000257541280192</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="Q16">
-        <v>1.000257541280192</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="R16">
-        <v>1.000096576742279</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="S16">
-        <v>1.000096576742279</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="T16">
-        <v>1.000034338055579</v>
+        <v>1.000003403421917</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="D17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="E17">
-        <v>1.000692279322872</v>
+        <v>1.000161384725473</v>
       </c>
       <c r="F17">
-        <v>0.999160874118996</v>
+        <v>0.999804380945402</v>
       </c>
       <c r="G17">
-        <v>1.001258691647685</v>
+        <v>1.000293431993086</v>
       </c>
       <c r="H17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="I17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="J17">
-        <v>1.001258691647685</v>
+        <v>1.000293431993086</v>
       </c>
       <c r="K17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="L17">
-        <v>0.9996853256071981</v>
+        <v>0.9999266428769422</v>
       </c>
       <c r="M17">
-        <v>1.000472008627441</v>
+        <v>1.000110037435014</v>
       </c>
       <c r="N17">
-        <v>1.000472008627441</v>
+        <v>1.000110037435014</v>
       </c>
       <c r="O17">
-        <v>1.000545432192585</v>
+        <v>1.0001271531985</v>
       </c>
       <c r="P17">
-        <v>1.000209780954027</v>
+        <v>1.000048905915657</v>
       </c>
       <c r="Q17">
-        <v>1.000209780954027</v>
+        <v>1.000048905915657</v>
       </c>
       <c r="R17">
-        <v>1.00007866711732</v>
+        <v>1.000018340155978</v>
       </c>
       <c r="S17">
-        <v>1.00007866711732</v>
+        <v>1.000018340155978</v>
       </c>
       <c r="T17">
-        <v>1.000027970318524</v>
+        <v>1.000006521049131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="D18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="E18">
-        <v>1.000369358881908</v>
+        <v>1.000236702246668</v>
       </c>
       <c r="F18">
-        <v>0.9995522911440498</v>
+        <v>0.9997130870210771</v>
       </c>
       <c r="G18">
-        <v>1.000671565847894</v>
+        <v>1.000430375573291</v>
       </c>
       <c r="H18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="I18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="J18">
-        <v>1.000671565847894</v>
+        <v>1.000430375573291</v>
       </c>
       <c r="K18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="L18">
-        <v>0.9998321085842742</v>
+        <v>0.9998924065422335</v>
       </c>
       <c r="M18">
-        <v>1.000251837216084</v>
+        <v>1.000161391057762</v>
       </c>
       <c r="N18">
-        <v>1.000251837216084</v>
+        <v>1.000161391057762</v>
       </c>
       <c r="O18">
-        <v>1.000291011104692</v>
+        <v>1.000186494787398</v>
       </c>
       <c r="P18">
-        <v>1.000111927672148</v>
+        <v>1.000071729552586</v>
       </c>
       <c r="Q18">
-        <v>1.000111927672148</v>
+        <v>1.000071729552586</v>
       </c>
       <c r="R18">
-        <v>1.000041972900179</v>
+        <v>1.000026898799998</v>
       </c>
       <c r="S18">
-        <v>1.000041972900179</v>
+        <v>1.000026898799998</v>
       </c>
       <c r="T18">
-        <v>1.000014923604446</v>
+        <v>1.000009564077956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="D19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="E19">
-        <v>1.000385114014229</v>
+        <v>1.000001579326332</v>
       </c>
       <c r="F19">
-        <v>0.999533190054775</v>
+        <v>0.9999980883835965</v>
       </c>
       <c r="G19">
-        <v>1.000700218190711</v>
+        <v>1.000002868811986</v>
       </c>
       <c r="H19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="I19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="J19">
-        <v>1.000700218190711</v>
+        <v>1.000002868811986</v>
       </c>
       <c r="K19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="L19">
-        <v>0.9998249497299555</v>
+        <v>0.9999992833889924</v>
       </c>
       <c r="M19">
-        <v>1.000262583960333</v>
+        <v>1.000001076100489</v>
       </c>
       <c r="N19">
-        <v>1.000262583960333</v>
+        <v>1.000001076100489</v>
       </c>
       <c r="O19">
-        <v>1.000303427311631</v>
+        <v>1.000001243842437</v>
       </c>
       <c r="P19">
-        <v>1.000116705883541</v>
+        <v>1.00000047852999</v>
       </c>
       <c r="Q19">
-        <v>1.000116705883541</v>
+        <v>1.00000047852999</v>
       </c>
       <c r="R19">
-        <v>1.000043766845144</v>
+        <v>1.000000179744741</v>
       </c>
       <c r="S19">
-        <v>1.000043766845144</v>
+        <v>1.000000179744741</v>
       </c>
       <c r="T19">
-        <v>1.000015561908263</v>
+        <v>1.000000064448148</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="D20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="E20">
-        <v>1.000000180683925</v>
+        <v>0.9999991394554139</v>
       </c>
       <c r="F20">
-        <v>0.9999997837136962</v>
+        <v>1.000001045778407</v>
       </c>
       <c r="G20">
-        <v>1.000000325826955</v>
+        <v>0.9999984326946321</v>
       </c>
       <c r="H20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="I20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="J20">
-        <v>1.000000325826955</v>
+        <v>0.9999984326946321</v>
       </c>
       <c r="K20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="L20">
-        <v>0.9999999191518042</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="M20">
-        <v>1.00000012248938</v>
+        <v>0.9999994125236611</v>
       </c>
       <c r="N20">
-        <v>1.00000012248938</v>
+        <v>0.9999994125236611</v>
       </c>
       <c r="O20">
-        <v>1.000000141887561</v>
+        <v>0.999999321500912</v>
       </c>
       <c r="P20">
-        <v>1.000000054710188</v>
+        <v>0.9999997391333375</v>
       </c>
       <c r="Q20">
-        <v>1.000000054710188</v>
+        <v>0.9999997391333375</v>
       </c>
       <c r="R20">
-        <v>1.000000020820592</v>
+        <v>0.9999999024381756</v>
       </c>
       <c r="S20">
-        <v>1.000000020820592</v>
+        <v>0.9999999024381756</v>
       </c>
       <c r="T20">
-        <v>1.000000007946665</v>
+        <v>0.9999999658310871</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="D21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="E21">
-        <v>1.000003815553753</v>
+        <v>0.9999971188694063</v>
       </c>
       <c r="F21">
-        <v>0.9999953776582707</v>
+        <v>1.000003494999058</v>
       </c>
       <c r="G21">
-        <v>1.000006934838652</v>
+        <v>0.9999947593669105</v>
       </c>
       <c r="H21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="I21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="J21">
-        <v>1.000006934838652</v>
+        <v>0.9999947593669105</v>
       </c>
       <c r="K21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="L21">
-        <v>0.9999982671232656</v>
+        <v>1.000001311355535</v>
       </c>
       <c r="M21">
-        <v>1.000002600980959</v>
+        <v>0.9999980353612226</v>
       </c>
       <c r="N21">
-        <v>1.000002600980959</v>
+        <v>0.9999980353612226</v>
       </c>
       <c r="O21">
-        <v>1.000003005838557</v>
+        <v>0.9999977298639505</v>
       </c>
       <c r="P21">
-        <v>1.000001156361728</v>
+        <v>0.9999991273593265</v>
       </c>
       <c r="Q21">
-        <v>1.000001156361728</v>
+        <v>0.9999991273593265</v>
       </c>
       <c r="R21">
-        <v>1.000000434052112</v>
+        <v>0.9999996733583785</v>
       </c>
       <c r="S21">
-        <v>1.000000434052112</v>
+        <v>0.9999996733583785</v>
       </c>
       <c r="T21">
-        <v>1.000000154903412</v>
+        <v>0.9999998845503297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="D22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="E22">
-        <v>1.000013432662646</v>
+        <v>0.9999956455091746</v>
       </c>
       <c r="F22">
-        <v>0.9999837214469739</v>
+        <v>1.000005279647578</v>
       </c>
       <c r="G22">
-        <v>1.000024421440363</v>
+        <v>0.9999920833433978</v>
       </c>
       <c r="H22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="I22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="J22">
-        <v>1.000024421440363</v>
+        <v>0.9999920833433978</v>
       </c>
       <c r="K22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="L22">
-        <v>0.9999938954744853</v>
+        <v>1.000001979378572</v>
       </c>
       <c r="M22">
-        <v>1.000009158457424</v>
+        <v>0.9999970313609852</v>
       </c>
       <c r="N22">
-        <v>1.000009158457424</v>
+        <v>0.9999970313609852</v>
       </c>
       <c r="O22">
-        <v>1.000010583192498</v>
+        <v>0.9999965694103817</v>
       </c>
       <c r="P22">
-        <v>1.000004070796445</v>
+        <v>0.9999986807001809</v>
       </c>
       <c r="Q22">
-        <v>1.000004070796445</v>
+        <v>0.9999986807001809</v>
       </c>
       <c r="R22">
-        <v>1.000001526965955</v>
+        <v>0.9999995053697788</v>
       </c>
       <c r="S22">
-        <v>1.000001526965955</v>
+        <v>0.9999995053697788</v>
       </c>
       <c r="T22">
-        <v>1.00000054366224</v>
+        <v>0.9999998244393112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="D23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="E23">
+        <v>0.9999861410078257</v>
+      </c>
+      <c r="F23">
+        <v>1.000016801146604</v>
+      </c>
+      <c r="G23">
+        <v>0.9999747978908444</v>
+      </c>
+      <c r="H23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="I23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="J23">
+        <v>0.9999747978908444</v>
+      </c>
+      <c r="K23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="L23">
+        <v>1.000006300335654</v>
+      </c>
+      <c r="M23">
+        <v>0.9999905491132492</v>
+      </c>
+      <c r="N23">
+        <v>0.9999905491132492</v>
+      </c>
+      <c r="O23">
+        <v>0.9999890797447747</v>
+      </c>
+      <c r="P23">
+        <v>0.9999957995207175</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999957995207175</v>
+      </c>
+      <c r="R23">
+        <v>0.9999984247244517</v>
+      </c>
+      <c r="S23">
+        <v>0.9999984247244517</v>
+      </c>
+      <c r="T23">
+        <v>0.9999994401753728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="D24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="E24">
+        <v>1.000871462401954</v>
+      </c>
+      <c r="F24">
+        <v>0.9989436836861949</v>
+      </c>
+      <c r="G24">
+        <v>1.00158447801317</v>
+      </c>
+      <c r="H24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="I24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="J24">
+        <v>1.00158447801317</v>
+      </c>
+      <c r="K24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="L24">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="M24">
+        <v>1.000594180797828</v>
+      </c>
+      <c r="N24">
+        <v>1.000594180797828</v>
+      </c>
+      <c r="O24">
+        <v>1.000686607999203</v>
+      </c>
+      <c r="P24">
+        <v>1.000264081726047</v>
+      </c>
+      <c r="Q24">
+        <v>1.000264081726047</v>
+      </c>
+      <c r="R24">
+        <v>1.000099032190156</v>
+      </c>
+      <c r="S24">
+        <v>1.000099032190156</v>
+      </c>
+      <c r="T24">
+        <v>1.000035212474796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="D25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="E25">
+        <v>1.000227815231654</v>
+      </c>
+      <c r="F25">
+        <v>0.9997238617926409</v>
+      </c>
+      <c r="G25">
+        <v>1.000414203344274</v>
+      </c>
+      <c r="H25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="I25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="J25">
+        <v>1.000414203344274</v>
+      </c>
+      <c r="K25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="L25">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="M25">
+        <v>1.000155326368615</v>
+      </c>
+      <c r="N25">
+        <v>1.000155326368615</v>
+      </c>
+      <c r="O25">
+        <v>1.000179489322962</v>
+      </c>
+      <c r="P25">
+        <v>1.000069034043396</v>
+      </c>
+      <c r="Q25">
+        <v>1.000069034043396</v>
+      </c>
+      <c r="R25">
+        <v>1.000025887880786</v>
+      </c>
+      <c r="S25">
+        <v>1.000025887880786</v>
+      </c>
+      <c r="T25">
+        <v>1.000009204757907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="D26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="E26">
+        <v>1.002180598738788</v>
+      </c>
+      <c r="F26">
+        <v>0.9973568568408632</v>
+      </c>
+      <c r="G26">
+        <v>1.003964713376434</v>
+      </c>
+      <c r="H26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="I26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="J26">
+        <v>1.003964713376434</v>
+      </c>
+      <c r="K26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="L26">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="M26">
+        <v>1.001486767382164</v>
+      </c>
+      <c r="N26">
+        <v>1.001486767382164</v>
+      </c>
+      <c r="O26">
+        <v>1.001718044501039</v>
+      </c>
+      <c r="P26">
+        <v>1.000660785384074</v>
+      </c>
+      <c r="Q26">
+        <v>1.000660785384074</v>
+      </c>
+      <c r="R26">
+        <v>1.000247794385029</v>
+      </c>
+      <c r="S26">
+        <v>1.000247794385029</v>
+      </c>
+      <c r="T26">
+        <v>1.000088105519961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="D27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="E27">
+        <v>1.000594802802129</v>
+      </c>
+      <c r="F27">
+        <v>0.9992790312211202</v>
+      </c>
+      <c r="G27">
+        <v>1.001081464766156</v>
+      </c>
+      <c r="H27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="I27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="J27">
+        <v>1.001081464766156</v>
+      </c>
+      <c r="K27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="L27">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="M27">
+        <v>1.000405550185135</v>
+      </c>
+      <c r="N27">
+        <v>1.000405550185135</v>
+      </c>
+      <c r="O27">
+        <v>1.0004686343908</v>
+      </c>
+      <c r="P27">
+        <v>1.000180245324795</v>
+      </c>
+      <c r="Q27">
+        <v>1.000180245324795</v>
+      </c>
+      <c r="R27">
+        <v>1.000067592894625</v>
+      </c>
+      <c r="S27">
+        <v>1.000067592894625</v>
+      </c>
+      <c r="T27">
+        <v>1.000024034266959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="D28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="E28">
+        <v>1.000849890288569</v>
+      </c>
+      <c r="F28">
+        <v>0.998969831075786</v>
+      </c>
+      <c r="G28">
+        <v>1.001545257583497</v>
+      </c>
+      <c r="H28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="I28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="J28">
+        <v>1.001545257583497</v>
+      </c>
+      <c r="K28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="L28">
+        <v>0.9996136831285399</v>
+      </c>
+      <c r="M28">
+        <v>1.000579470356018</v>
+      </c>
+      <c r="N28">
+        <v>1.000579470356018</v>
+      </c>
+      <c r="O28">
+        <v>1.000669610333535</v>
+      </c>
+      <c r="P28">
+        <v>1.000257541280192</v>
+      </c>
+      <c r="Q28">
+        <v>1.000257541280192</v>
+      </c>
+      <c r="R28">
+        <v>1.000096576742279</v>
+      </c>
+      <c r="S28">
+        <v>1.000096576742279</v>
+      </c>
+      <c r="T28">
+        <v>1.000034338055579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="D29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="E29">
+        <v>1.000692279322872</v>
+      </c>
+      <c r="F29">
+        <v>0.999160874118996</v>
+      </c>
+      <c r="G29">
+        <v>1.001258691647685</v>
+      </c>
+      <c r="H29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="I29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="J29">
+        <v>1.001258691647685</v>
+      </c>
+      <c r="K29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="L29">
+        <v>0.9996853256071981</v>
+      </c>
+      <c r="M29">
+        <v>1.000472008627441</v>
+      </c>
+      <c r="N29">
+        <v>1.000472008627441</v>
+      </c>
+      <c r="O29">
+        <v>1.000545432192585</v>
+      </c>
+      <c r="P29">
+        <v>1.000209780954027</v>
+      </c>
+      <c r="Q29">
+        <v>1.000209780954027</v>
+      </c>
+      <c r="R29">
+        <v>1.00007866711732</v>
+      </c>
+      <c r="S29">
+        <v>1.00007866711732</v>
+      </c>
+      <c r="T29">
+        <v>1.000027970318524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="D30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="E30">
+        <v>1.000369358881908</v>
+      </c>
+      <c r="F30">
+        <v>0.9995522911440498</v>
+      </c>
+      <c r="G30">
+        <v>1.000671565847894</v>
+      </c>
+      <c r="H30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="I30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="J30">
+        <v>1.000671565847894</v>
+      </c>
+      <c r="K30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="L30">
+        <v>0.9998321085842742</v>
+      </c>
+      <c r="M30">
+        <v>1.000251837216084</v>
+      </c>
+      <c r="N30">
+        <v>1.000251837216084</v>
+      </c>
+      <c r="O30">
+        <v>1.000291011104692</v>
+      </c>
+      <c r="P30">
+        <v>1.000111927672148</v>
+      </c>
+      <c r="Q30">
+        <v>1.000111927672148</v>
+      </c>
+      <c r="R30">
+        <v>1.000041972900179</v>
+      </c>
+      <c r="S30">
+        <v>1.000041972900179</v>
+      </c>
+      <c r="T30">
+        <v>1.000014923604446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="D31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="E31">
+        <v>1.000385114014229</v>
+      </c>
+      <c r="F31">
+        <v>0.999533190054775</v>
+      </c>
+      <c r="G31">
+        <v>1.000700218190711</v>
+      </c>
+      <c r="H31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="I31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="J31">
+        <v>1.000700218190711</v>
+      </c>
+      <c r="K31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="L31">
+        <v>0.9998249497299555</v>
+      </c>
+      <c r="M31">
+        <v>1.000262583960333</v>
+      </c>
+      <c r="N31">
+        <v>1.000262583960333</v>
+      </c>
+      <c r="O31">
+        <v>1.000303427311631</v>
+      </c>
+      <c r="P31">
+        <v>1.000116705883541</v>
+      </c>
+      <c r="Q31">
+        <v>1.000116705883541</v>
+      </c>
+      <c r="R31">
+        <v>1.000043766845144</v>
+      </c>
+      <c r="S31">
+        <v>1.000043766845144</v>
+      </c>
+      <c r="T31">
+        <v>1.000015561908263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="D32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="E32">
+        <v>1.000863501780822</v>
+      </c>
+      <c r="F32">
+        <v>0.9989533334246578</v>
+      </c>
+      <c r="G32">
+        <v>1.001570006164384</v>
+      </c>
+      <c r="H32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="I32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="J32">
+        <v>1.001570006164384</v>
+      </c>
+      <c r="K32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="L32">
+        <v>0.9996074950684928</v>
+      </c>
+      <c r="M32">
+        <v>1.000588750616438</v>
+      </c>
+      <c r="N32">
+        <v>1.000588750616438</v>
+      </c>
+      <c r="O32">
+        <v>1.000680334337899</v>
+      </c>
+      <c r="P32">
+        <v>1.00026166543379</v>
+      </c>
+      <c r="Q32">
+        <v>1.00026166543379</v>
+      </c>
+      <c r="R32">
+        <v>1.000098122842466</v>
+      </c>
+      <c r="S32">
+        <v>1.000098122842466</v>
+      </c>
+      <c r="T32">
+        <v>1.000034887762557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="D33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="E33">
+        <v>0.9962540142105263</v>
+      </c>
+      <c r="F33">
+        <v>1.00454058</v>
+      </c>
+      <c r="G33">
+        <v>0.9931891326315789</v>
+      </c>
+      <c r="H33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="I33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="J33">
+        <v>0.9931891326315789</v>
+      </c>
+      <c r="K33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="L33">
+        <v>1.001702715789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9974459242105264</v>
+      </c>
+      <c r="N33">
+        <v>0.9974459242105264</v>
+      </c>
+      <c r="O33">
+        <v>0.997048620877193</v>
+      </c>
+      <c r="P33">
+        <v>0.9988648547368421</v>
+      </c>
+      <c r="Q33">
+        <v>0.9988648547368421</v>
+      </c>
+      <c r="R33">
+        <v>0.99957432</v>
+      </c>
+      <c r="S33">
+        <v>0.99957432</v>
+      </c>
+      <c r="T33">
+        <v>0.9998486457017544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="D34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="E34">
+        <v>0.9936457931578948</v>
+      </c>
+      <c r="F34">
+        <v>1.007702070526316</v>
+      </c>
+      <c r="G34">
+        <v>0.9884468926315789</v>
+      </c>
+      <c r="H34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="I34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="J34">
+        <v>0.9884468926315789</v>
+      </c>
+      <c r="K34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="L34">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="M34">
+        <v>0.9956675899999998</v>
+      </c>
+      <c r="N34">
+        <v>0.9956675899999998</v>
+      </c>
+      <c r="O34">
+        <v>0.9949936577192982</v>
+      </c>
+      <c r="P34">
+        <v>0.9980744891228067</v>
+      </c>
+      <c r="Q34">
+        <v>0.9980744891228067</v>
+      </c>
+      <c r="R34">
+        <v>0.9992779386842103</v>
+      </c>
+      <c r="S34">
+        <v>0.9992779386842103</v>
+      </c>
+      <c r="T34">
+        <v>0.9997432697368419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="D35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="E35">
+        <v>1.001531005075255</v>
+      </c>
+      <c r="F35">
+        <v>0.9981442074371726</v>
+      </c>
+      <c r="G35">
+        <v>1.002783669019255</v>
+      </c>
+      <c r="H35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="I35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="J35">
+        <v>1.002783669019255</v>
+      </c>
+      <c r="K35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="L35">
+        <v>0.9993040803342889</v>
+      </c>
+      <c r="M35">
+        <v>1.001043874676772</v>
+      </c>
+      <c r="N35">
+        <v>1.001043874676772</v>
+      </c>
+      <c r="O35">
+        <v>1.001206251476266</v>
+      </c>
+      <c r="P35">
+        <v>1.000463943229277</v>
+      </c>
+      <c r="Q35">
+        <v>1.000463943229277</v>
+      </c>
+      <c r="R35">
+        <v>1.00017397750553</v>
+      </c>
+      <c r="S35">
+        <v>1.00017397750553</v>
+      </c>
+      <c r="T35">
+        <v>1.000061853755758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="D36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="E36">
+        <v>1.000000180683925</v>
+      </c>
+      <c r="F36">
+        <v>0.9999997837136962</v>
+      </c>
+      <c r="G36">
+        <v>1.000000325826955</v>
+      </c>
+      <c r="H36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="I36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="J36">
+        <v>1.000000325826955</v>
+      </c>
+      <c r="K36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="L36">
+        <v>0.9999999191518042</v>
+      </c>
+      <c r="M36">
+        <v>1.00000012248938</v>
+      </c>
+      <c r="N36">
+        <v>1.00000012248938</v>
+      </c>
+      <c r="O36">
+        <v>1.000000141887561</v>
+      </c>
+      <c r="P36">
+        <v>1.000000054710188</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000054710188</v>
+      </c>
+      <c r="R36">
+        <v>1.000000020820592</v>
+      </c>
+      <c r="S36">
+        <v>1.000000020820592</v>
+      </c>
+      <c r="T36">
+        <v>1.000000007946665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="D37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="E37">
+        <v>1.000003815553753</v>
+      </c>
+      <c r="F37">
+        <v>0.9999953776582707</v>
+      </c>
+      <c r="G37">
+        <v>1.000006934838652</v>
+      </c>
+      <c r="H37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="I37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="J37">
+        <v>1.000006934838652</v>
+      </c>
+      <c r="K37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="L37">
+        <v>0.9999982671232656</v>
+      </c>
+      <c r="M37">
+        <v>1.000002600980959</v>
+      </c>
+      <c r="N37">
+        <v>1.000002600980959</v>
+      </c>
+      <c r="O37">
+        <v>1.000003005838557</v>
+      </c>
+      <c r="P37">
+        <v>1.000001156361728</v>
+      </c>
+      <c r="Q37">
+        <v>1.000001156361728</v>
+      </c>
+      <c r="R37">
+        <v>1.000000434052112</v>
+      </c>
+      <c r="S37">
+        <v>1.000000434052112</v>
+      </c>
+      <c r="T37">
+        <v>1.000000154903412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="D38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="E38">
+        <v>1.000013432662646</v>
+      </c>
+      <c r="F38">
+        <v>0.9999837214469739</v>
+      </c>
+      <c r="G38">
+        <v>1.000024421440363</v>
+      </c>
+      <c r="H38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="I38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="J38">
+        <v>1.000024421440363</v>
+      </c>
+      <c r="K38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="L38">
+        <v>0.9999938954744853</v>
+      </c>
+      <c r="M38">
+        <v>1.000009158457424</v>
+      </c>
+      <c r="N38">
+        <v>1.000009158457424</v>
+      </c>
+      <c r="O38">
+        <v>1.000010583192498</v>
+      </c>
+      <c r="P38">
+        <v>1.000004070796445</v>
+      </c>
+      <c r="Q38">
+        <v>1.000004070796445</v>
+      </c>
+      <c r="R38">
+        <v>1.000001526965955</v>
+      </c>
+      <c r="S38">
+        <v>1.000001526965955</v>
+      </c>
+      <c r="T38">
+        <v>1.00000054366224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031462464011</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999618615130893</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000057209768475</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000057209768475</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999856985161737</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000021454142324</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000021454142324</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000024790249553</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000009535600274</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000009535600274</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000003576329249</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000003576329249</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000001271549016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="D40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="E40">
+        <v>0.9976153918073414</v>
+      </c>
+      <c r="F40">
+        <v>1.002890437022457</v>
+      </c>
+      <c r="G40">
+        <v>0.9956643448017533</v>
+      </c>
+      <c r="H40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="I40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="J40">
+        <v>0.9956643448017533</v>
+      </c>
+      <c r="K40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="L40">
+        <v>1.001083911538769</v>
+      </c>
+      <c r="M40">
+        <v>0.9983741281702611</v>
+      </c>
+      <c r="N40">
+        <v>0.9983741281702611</v>
+      </c>
+      <c r="O40">
+        <v>0.9981212160492877</v>
+      </c>
+      <c r="P40">
+        <v>0.999277389293097</v>
+      </c>
+      <c r="Q40">
+        <v>0.999277389293097</v>
+      </c>
+      <c r="R40">
+        <v>0.9997290198545149</v>
+      </c>
+      <c r="S40">
+        <v>0.9997290198545149</v>
+      </c>
+      <c r="T40">
+        <v>0.9999036513746432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="D41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="E41">
+        <v>1.000260092706018</v>
+      </c>
+      <c r="F41">
+        <v>0.9996847400435047</v>
+      </c>
+      <c r="G41">
+        <v>1.000472890114183</v>
+      </c>
+      <c r="H41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="I41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="J41">
+        <v>1.000472890114183</v>
+      </c>
+      <c r="K41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="L41">
+        <v>0.9998817787203171</v>
+      </c>
+      <c r="M41">
+        <v>1.00017733441725</v>
+      </c>
+      <c r="N41">
+        <v>1.00017733441725</v>
+      </c>
+      <c r="O41">
+        <v>1.000204920513506</v>
+      </c>
+      <c r="P41">
+        <v>1.000078815851606</v>
+      </c>
+      <c r="Q41">
+        <v>1.000078815851606</v>
+      </c>
+      <c r="R41">
+        <v>1.000029556568784</v>
+      </c>
+      <c r="S41">
+        <v>1.000029556568784</v>
+      </c>
+      <c r="T41">
+        <v>1.000010509837443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="D42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="E42">
+        <v>0.9997739894594611</v>
+      </c>
+      <c r="F42">
+        <v>1.000273955898136</v>
+      </c>
+      <c r="G42">
+        <v>0.9995890629195889</v>
+      </c>
+      <c r="H42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="I42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="J42">
+        <v>0.9995890629195889</v>
+      </c>
+      <c r="K42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="L42">
+        <v>1.000102730244987</v>
+      </c>
+      <c r="M42">
+        <v>0.9998458965822877</v>
+      </c>
+      <c r="N42">
+        <v>0.9998458965822877</v>
+      </c>
+      <c r="O42">
+        <v>0.9998219275413455</v>
+      </c>
+      <c r="P42">
+        <v>0.9999315078031873</v>
+      </c>
+      <c r="Q42">
+        <v>0.9999315078031873</v>
+      </c>
+      <c r="R42">
+        <v>0.9999743134136372</v>
+      </c>
+      <c r="S42">
+        <v>0.9999743134136372</v>
+      </c>
+      <c r="T42">
+        <v>0.9999908665020242</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999980171782183</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="D3">
-        <v>1.000079314395988</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="E3">
-        <v>0.999980171782183</v>
+        <v>0.9999991394554139</v>
       </c>
       <c r="F3">
-        <v>0.999980171782183</v>
+        <v>1.000001045778407</v>
       </c>
       <c r="G3">
-        <v>0.9999471246621394</v>
+        <v>0.9999984326946321</v>
       </c>
       <c r="H3">
-        <v>1.000043624086896</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="I3">
-        <v>0.999980171782183</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="J3">
-        <v>1.000079314395988</v>
+        <v>0.9999984326946321</v>
       </c>
       <c r="K3">
-        <v>0.999980171782183</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="L3">
-        <v>0.999980171782183</v>
+        <v>1.00000039235269</v>
       </c>
       <c r="M3">
-        <v>1.000029743089085</v>
+        <v>0.9999994125236611</v>
       </c>
       <c r="N3">
-        <v>1.000029743089085</v>
+        <v>0.9999994125236611</v>
       </c>
       <c r="O3">
-        <v>1.000034370088356</v>
+        <v>0.999999321500912</v>
       </c>
       <c r="P3">
-        <v>1.000013219320118</v>
+        <v>0.9999997391333375</v>
       </c>
       <c r="Q3">
-        <v>1.000013219320118</v>
+        <v>0.9999997391333375</v>
       </c>
       <c r="R3">
-        <v>1.000004957435634</v>
+        <v>0.9999999024381756</v>
       </c>
       <c r="S3">
-        <v>1.000004957435634</v>
+        <v>0.9999999024381756</v>
       </c>
       <c r="T3">
-        <v>1.000001763081929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999999658310871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999617214304334</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="D4">
-        <v>1.000153118317757</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="E4">
-        <v>0.9999617214304334</v>
+        <v>0.9976153918073414</v>
       </c>
       <c r="F4">
-        <v>0.9999617214304334</v>
+        <v>1.002890437022457</v>
       </c>
       <c r="G4">
-        <v>0.999897923221944</v>
+        <v>0.9956643448017533</v>
       </c>
       <c r="H4">
-        <v>1.0000842147005</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="I4">
-        <v>0.9999617214304334</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="J4">
-        <v>1.000153118317757</v>
+        <v>0.9956643448017533</v>
       </c>
       <c r="K4">
-        <v>0.9999617214304334</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="L4">
-        <v>0.9999617214304334</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="M4">
-        <v>1.000057419874095</v>
+        <v>0.9983741281702611</v>
       </c>
       <c r="N4">
-        <v>1.000057419874095</v>
+        <v>0.9983741281702611</v>
       </c>
       <c r="O4">
-        <v>1.000066351482897</v>
+        <v>0.9981212160492877</v>
       </c>
       <c r="P4">
-        <v>1.000025520392875</v>
+        <v>0.999277389293097</v>
       </c>
       <c r="Q4">
-        <v>1.000025520392875</v>
+        <v>0.999277389293097</v>
       </c>
       <c r="R4">
-        <v>1.000009570652264</v>
+        <v>0.9997290198545149</v>
       </c>
       <c r="S4">
-        <v>1.000009570652264</v>
+        <v>0.9997290198545149</v>
       </c>
       <c r="T4">
-        <v>1.000003403421917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999036513746432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999266428769422</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="D5">
-        <v>1.000293431993086</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="E5">
-        <v>0.9999266428769422</v>
+        <v>1.000363230511528</v>
       </c>
       <c r="F5">
-        <v>0.9999266428769422</v>
+        <v>0.9995597187463992</v>
       </c>
       <c r="G5">
-        <v>0.999804380945402</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="H5">
-        <v>1.000161384725473</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="I5">
-        <v>0.9999266428769422</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="J5">
-        <v>1.000293431993086</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="K5">
-        <v>0.9999266428769422</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="L5">
-        <v>0.9999266428769422</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="M5">
-        <v>1.000110037435014</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="N5">
-        <v>1.000110037435014</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="O5">
-        <v>1.0001271531985</v>
+        <v>1.000286182240635</v>
       </c>
       <c r="P5">
-        <v>1.000048905915657</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="Q5">
-        <v>1.000048905915657</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="R5">
-        <v>1.000018340155978</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="S5">
-        <v>1.000018340155978</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="T5">
-        <v>1.000006521049131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000014675964218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9998924065422335</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="D6">
-        <v>1.000430375573291</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="E6">
-        <v>0.9998924065422335</v>
+        <v>1.001531005075255</v>
       </c>
       <c r="F6">
-        <v>0.9998924065422335</v>
+        <v>0.9981442074371726</v>
       </c>
       <c r="G6">
-        <v>0.9997130870210771</v>
+        <v>1.002783669019255</v>
       </c>
       <c r="H6">
-        <v>1.000236702246668</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="I6">
-        <v>0.9998924065422335</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="J6">
-        <v>1.000430375573291</v>
+        <v>1.002783669019255</v>
       </c>
       <c r="K6">
-        <v>0.9998924065422335</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="L6">
-        <v>0.9998924065422335</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="M6">
-        <v>1.000161391057762</v>
+        <v>1.001043874676772</v>
       </c>
       <c r="N6">
-        <v>1.000161391057762</v>
+        <v>1.001043874676772</v>
       </c>
       <c r="O6">
-        <v>1.000186494787398</v>
+        <v>1.001206251476266</v>
       </c>
       <c r="P6">
-        <v>1.000071729552586</v>
+        <v>1.000463943229277</v>
       </c>
       <c r="Q6">
-        <v>1.000071729552586</v>
+        <v>1.000463943229277</v>
       </c>
       <c r="R6">
-        <v>1.000026898799998</v>
+        <v>1.00017397750553</v>
       </c>
       <c r="S6">
-        <v>1.000026898799998</v>
+        <v>1.00017397750553</v>
       </c>
       <c r="T6">
-        <v>1.000009564077956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.000061853755758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999999283388992</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="D7">
-        <v>1.000002868811986</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="E7">
-        <v>0.999999283388992</v>
+        <v>1.000019190950489</v>
       </c>
       <c r="F7">
-        <v>0.999999283388992</v>
+        <v>0.9999767419877152</v>
       </c>
       <c r="G7">
-        <v>0.9999980883835965</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="H7">
-        <v>1.000001579326332</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="I7">
-        <v>0.999999283388992</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="J7">
-        <v>1.000002868811986</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="K7">
-        <v>0.999999283388992</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="L7">
-        <v>0.999999283388992</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="M7">
-        <v>1.000001076100489</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="N7">
-        <v>1.000001076100489</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="O7">
-        <v>1.000001243842437</v>
+        <v>1.000015119176744</v>
       </c>
       <c r="P7">
-        <v>1.00000047852999</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="Q7">
-        <v>1.00000047852999</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="R7">
-        <v>1.00000017974474</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="S7">
-        <v>1.00000017974474</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="T7">
-        <v>1.000000064448148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.00000077603467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000039235269</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="D8">
-        <v>0.9999984326946321</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="E8">
-        <v>1.00000039235269</v>
+        <v>1.000003815553753</v>
       </c>
       <c r="F8">
-        <v>1.00000039235269</v>
+        <v>0.9999953776582707</v>
       </c>
       <c r="G8">
-        <v>1.000001045778407</v>
+        <v>1.000006934838652</v>
       </c>
       <c r="H8">
-        <v>0.9999991394554139</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="I8">
-        <v>1.00000039235269</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="J8">
-        <v>0.9999984326946321</v>
+        <v>1.000006934838652</v>
       </c>
       <c r="K8">
-        <v>1.00000039235269</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="L8">
-        <v>1.00000039235269</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="M8">
-        <v>0.9999994125236611</v>
+        <v>1.000002600980959</v>
       </c>
       <c r="N8">
-        <v>0.9999994125236611</v>
+        <v>1.000002600980959</v>
       </c>
       <c r="O8">
-        <v>0.999999321500912</v>
+        <v>1.000003005838557</v>
       </c>
       <c r="P8">
-        <v>0.9999997391333375</v>
+        <v>1.000001156361728</v>
       </c>
       <c r="Q8">
-        <v>0.9999997391333375</v>
+        <v>1.000001156361728</v>
       </c>
       <c r="R8">
-        <v>0.9999999024381756</v>
+        <v>1.000000434052112</v>
       </c>
       <c r="S8">
-        <v>0.9999999024381756</v>
+        <v>1.000000434052112</v>
       </c>
       <c r="T8">
-        <v>0.9999999658310871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000000154903412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000001311355535</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="D9">
-        <v>0.9999947593669105</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="E9">
-        <v>1.000001311355535</v>
+        <v>1.0000842147005</v>
       </c>
       <c r="F9">
-        <v>1.000001311355535</v>
+        <v>0.9998979232219442</v>
       </c>
       <c r="G9">
-        <v>1.000003494999058</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="H9">
-        <v>0.9999971188694063</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="I9">
-        <v>1.000001311355535</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="J9">
-        <v>0.9999947593669105</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="K9">
-        <v>1.000001311355535</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="L9">
-        <v>1.000001311355535</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="M9">
-        <v>0.9999980353612226</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="N9">
-        <v>0.9999980353612226</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="O9">
-        <v>0.9999977298639505</v>
+        <v>1.000066351482897</v>
       </c>
       <c r="P9">
-        <v>0.9999991273593265</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="Q9">
-        <v>0.9999991273593265</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="R9">
-        <v>0.9999996733583785</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="S9">
-        <v>0.9999996733583785</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="T9">
-        <v>0.9999998845503297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000003403421917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000001979378572</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="D10">
-        <v>0.9999920833433978</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="E10">
-        <v>1.000001979378572</v>
+        <v>1.001553971795739</v>
       </c>
       <c r="F10">
-        <v>1.000001979378572</v>
+        <v>0.9981163681590556</v>
       </c>
       <c r="G10">
-        <v>1.000005279647578</v>
+        <v>1.002825428719375</v>
       </c>
       <c r="H10">
-        <v>0.9999956455091746</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="I10">
-        <v>1.000001979378572</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="J10">
-        <v>0.9999920833433978</v>
+        <v>1.002825428719375</v>
       </c>
       <c r="K10">
-        <v>1.000001979378572</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="L10">
-        <v>1.000001979378572</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="M10">
-        <v>0.9999970313609852</v>
+        <v>1.001059535050183</v>
       </c>
       <c r="N10">
-        <v>0.9999970313609852</v>
+        <v>1.001059535050183</v>
       </c>
       <c r="O10">
-        <v>0.9999965694103817</v>
+        <v>1.001224347298702</v>
       </c>
       <c r="P10">
-        <v>0.9999986807001809</v>
+        <v>1.000470903827119</v>
       </c>
       <c r="Q10">
-        <v>0.9999986807001809</v>
+        <v>1.000470903827119</v>
       </c>
       <c r="R10">
-        <v>0.9999995053697788</v>
+        <v>1.000176588215587</v>
       </c>
       <c r="S10">
-        <v>0.9999995053697788</v>
+        <v>1.000176588215587</v>
       </c>
       <c r="T10">
-        <v>0.9999998244393112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.000062782136191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000006300335654</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="D11">
-        <v>0.9999747978908444</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="E11">
-        <v>1.000006300335654</v>
+        <v>0.9982198895632023</v>
       </c>
       <c r="F11">
-        <v>1.000006300335654</v>
+        <v>1.002157714085841</v>
       </c>
       <c r="G11">
-        <v>1.000016801146604</v>
+        <v>0.9967634287253719</v>
       </c>
       <c r="H11">
-        <v>0.9999861410078257</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="I11">
-        <v>1.000006300335654</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="J11">
-        <v>0.9999747978908444</v>
+        <v>0.9967634287253719</v>
       </c>
       <c r="K11">
-        <v>1.000006300335654</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="L11">
-        <v>1.000006300335654</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="M11">
-        <v>0.9999905491132492</v>
+        <v>0.9987862846409977</v>
       </c>
       <c r="N11">
-        <v>0.9999905491132492</v>
+        <v>0.9987862846409977</v>
       </c>
       <c r="O11">
-        <v>0.9999890797447747</v>
+        <v>0.9985974862817325</v>
       </c>
       <c r="P11">
-        <v>0.9999957995207175</v>
+        <v>0.9994605699462064</v>
       </c>
       <c r="Q11">
-        <v>0.9999957995207175</v>
+        <v>0.9994605699462064</v>
       </c>
       <c r="R11">
-        <v>0.9999984247244517</v>
+        <v>0.9997977125988107</v>
       </c>
       <c r="S11">
-        <v>0.9999984247244517</v>
+        <v>0.9997977125988107</v>
       </c>
       <c r="T11">
-        <v>0.9999994401753728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999280756740476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996038835824849</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="D12">
-        <v>1.00158447801317</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="E12">
-        <v>0.9996038835824849</v>
+        <v>1.000396714589474</v>
       </c>
       <c r="F12">
-        <v>0.9996038835824849</v>
+        <v>0.9995191297473706</v>
       </c>
       <c r="G12">
-        <v>0.9989436836861949</v>
+        <v>1.000721305294738</v>
       </c>
       <c r="H12">
-        <v>1.000871462401954</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="I12">
-        <v>0.9996038835824849</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="J12">
-        <v>1.00158447801317</v>
+        <v>1.000721305294738</v>
       </c>
       <c r="K12">
-        <v>0.9996038835824849</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="L12">
-        <v>0.9996038835824849</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="M12">
-        <v>1.000594180797828</v>
+        <v>1.000270490205264</v>
       </c>
       <c r="N12">
-        <v>1.000594180797828</v>
+        <v>1.000270490205264</v>
       </c>
       <c r="O12">
-        <v>1.000686607999203</v>
+        <v>1.000312565</v>
       </c>
       <c r="P12">
-        <v>1.000264081726047</v>
+        <v>1.000120218508773</v>
       </c>
       <c r="Q12">
-        <v>1.000264081726047</v>
+        <v>1.000120218508773</v>
       </c>
       <c r="R12">
-        <v>1.000099032190156</v>
+        <v>1.000045082660527</v>
       </c>
       <c r="S12">
-        <v>1.000099032190156</v>
+        <v>1.000045082660527</v>
       </c>
       <c r="T12">
-        <v>1.000035212474796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000016029163158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998964493929572</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="D13">
-        <v>1.000414203344274</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="E13">
-        <v>0.9998964493929572</v>
+        <v>0.9996943700054491</v>
       </c>
       <c r="F13">
-        <v>0.9998964493929572</v>
+        <v>1.00037046336123</v>
       </c>
       <c r="G13">
-        <v>0.9997238617926408</v>
+        <v>0.9994443108028237</v>
       </c>
       <c r="H13">
-        <v>1.000227815231654</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="I13">
-        <v>0.9998964493929572</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="J13">
-        <v>1.000414203344274</v>
+        <v>0.9994443108028237</v>
       </c>
       <c r="K13">
-        <v>0.9998964493929572</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="L13">
-        <v>0.9998964493929572</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="M13">
-        <v>1.000155326368615</v>
+        <v>0.9997916183259717</v>
       </c>
       <c r="N13">
-        <v>1.000155326368615</v>
+        <v>0.9997916183259717</v>
       </c>
       <c r="O13">
-        <v>1.000179489322962</v>
+        <v>0.9997592022191308</v>
       </c>
       <c r="P13">
-        <v>1.000069034043396</v>
+        <v>0.9999073875003545</v>
       </c>
       <c r="Q13">
-        <v>1.000069034043396</v>
+        <v>0.9999073875003545</v>
       </c>
       <c r="R13">
-        <v>1.000025887880786</v>
+        <v>0.9999652720875458</v>
       </c>
       <c r="S13">
-        <v>1.000025887880786</v>
+        <v>0.9999652720875458</v>
       </c>
       <c r="T13">
-        <v>1.000009204757907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9999876536194771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9990088213878943</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="D14">
-        <v>1.003964713376434</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="E14">
-        <v>0.9990088213878943</v>
+        <v>1.002684799999999</v>
       </c>
       <c r="F14">
-        <v>0.9990088213878943</v>
+        <v>0.99674564</v>
       </c>
       <c r="G14">
-        <v>0.9973568568408632</v>
+        <v>1.004881500000001</v>
       </c>
       <c r="H14">
-        <v>1.002180598738788</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="I14">
-        <v>0.9990088213878943</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="J14">
-        <v>1.003964713376434</v>
+        <v>1.004881500000001</v>
       </c>
       <c r="K14">
-        <v>0.9990088213878943</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="L14">
-        <v>0.9990088213878943</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="M14">
-        <v>1.001486767382164</v>
+        <v>1.00183056</v>
       </c>
       <c r="N14">
-        <v>1.001486767382164</v>
+        <v>1.00183056</v>
       </c>
       <c r="O14">
-        <v>1.001718044501039</v>
+        <v>1.002115306666666</v>
       </c>
       <c r="P14">
-        <v>1.000660785384074</v>
+        <v>1.00081358</v>
       </c>
       <c r="Q14">
-        <v>1.000660785384074</v>
+        <v>1.00081358</v>
       </c>
       <c r="R14">
-        <v>1.000247794385029</v>
+        <v>1.00030509</v>
       </c>
       <c r="S14">
-        <v>1.000247794385029</v>
+        <v>1.00030509</v>
       </c>
       <c r="T14">
-        <v>1.000088105519961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.000108466666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997296356041152</v>
+        <v>1.0042979</v>
       </c>
       <c r="D15">
-        <v>1.001081464766156</v>
+        <v>1.0042979</v>
       </c>
       <c r="E15">
-        <v>0.9997296356041152</v>
+        <v>0.99054463</v>
       </c>
       <c r="F15">
-        <v>0.9997296356041152</v>
+        <v>1.0114611</v>
       </c>
       <c r="G15">
-        <v>0.9992790312211202</v>
+        <v>0.98280841</v>
       </c>
       <c r="H15">
-        <v>1.000594802802129</v>
+        <v>1.0042979</v>
       </c>
       <c r="I15">
-        <v>0.9997296356041152</v>
+        <v>1.0042979</v>
       </c>
       <c r="J15">
-        <v>1.001081464766156</v>
+        <v>0.98280841</v>
       </c>
       <c r="K15">
-        <v>0.9997296356041152</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>0.9997296356041152</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>1.000405550185135</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>1.000405550185135</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>1.0004686343908</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>1.000180245324795</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>1.000180245324795</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>1.000067592894625</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>1.000067592894625</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>1.000024034266959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999999191518042</v>
+        <v>1.007902</v>
       </c>
       <c r="D16">
-        <v>1.000000325826955</v>
+        <v>1.007902</v>
       </c>
       <c r="E16">
-        <v>0.9999999191518042</v>
+        <v>0.98261561</v>
       </c>
       <c r="F16">
-        <v>0.9999999191518042</v>
+        <v>1.021072</v>
       </c>
       <c r="G16">
-        <v>0.9999997837136962</v>
+        <v>0.9683920100000001</v>
       </c>
       <c r="H16">
-        <v>1.000000180683925</v>
+        <v>1.007902</v>
       </c>
       <c r="I16">
-        <v>0.9999999191518042</v>
+        <v>1.007902</v>
       </c>
       <c r="J16">
-        <v>1.000000325826955</v>
+        <v>0.9683920100000001</v>
       </c>
       <c r="K16">
-        <v>0.9999999191518042</v>
+        <v>1.007902</v>
       </c>
       <c r="L16">
-        <v>0.9999999191518042</v>
+        <v>1.007902</v>
       </c>
       <c r="M16">
-        <v>1.00000012248938</v>
+        <v>0.9881470050000001</v>
       </c>
       <c r="N16">
-        <v>1.00000012248938</v>
+        <v>0.9881470050000001</v>
       </c>
       <c r="O16">
-        <v>1.000000141887561</v>
+        <v>0.9863032066666667</v>
       </c>
       <c r="P16">
-        <v>1.000000054710188</v>
+        <v>0.9947320033333334</v>
       </c>
       <c r="Q16">
-        <v>1.000000054710188</v>
+        <v>0.9947320033333334</v>
       </c>
       <c r="R16">
-        <v>1.000000020820592</v>
+        <v>0.9980245025000001</v>
       </c>
       <c r="S16">
-        <v>1.000000020820592</v>
+        <v>0.9980245025000001</v>
       </c>
       <c r="T16">
-        <v>1.000000007946665</v>
+        <v>0.9992976033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999982671232656</v>
+        <v>1.0030278</v>
       </c>
       <c r="D17">
-        <v>1.000006934838652</v>
+        <v>1.0030278</v>
       </c>
       <c r="E17">
-        <v>0.9999982671232656</v>
+        <v>0.9933389299999998</v>
       </c>
       <c r="F17">
-        <v>0.9999982671232656</v>
+        <v>1.008074</v>
       </c>
       <c r="G17">
-        <v>0.9999953776582708</v>
+        <v>0.98788896</v>
       </c>
       <c r="H17">
-        <v>1.000003815553753</v>
+        <v>1.0030278</v>
       </c>
       <c r="I17">
-        <v>0.9999982671232656</v>
+        <v>1.0030278</v>
       </c>
       <c r="J17">
-        <v>1.000006934838652</v>
+        <v>0.98788896</v>
       </c>
       <c r="K17">
-        <v>0.9999982671232656</v>
+        <v>1.0030278</v>
       </c>
       <c r="L17">
-        <v>0.9999982671232656</v>
+        <v>1.0030278</v>
       </c>
       <c r="M17">
-        <v>1.000002600980959</v>
+        <v>0.99545838</v>
       </c>
       <c r="N17">
-        <v>1.000002600980959</v>
+        <v>0.99545838</v>
       </c>
       <c r="O17">
-        <v>1.000003005838557</v>
+        <v>0.9947518966666666</v>
       </c>
       <c r="P17">
-        <v>1.000001156361728</v>
+        <v>0.9979815200000001</v>
       </c>
       <c r="Q17">
-        <v>1.000001156361728</v>
+        <v>0.9979815200000001</v>
       </c>
       <c r="R17">
-        <v>1.000000434052112</v>
+        <v>0.99924309</v>
       </c>
       <c r="S17">
-        <v>1.000000434052112</v>
+        <v>0.99924309</v>
       </c>
       <c r="T17">
-        <v>1.000000154903412</v>
+        <v>0.9997308816666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999938954744853</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="D18">
-        <v>1.000024421440363</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="E18">
-        <v>0.9999938954744853</v>
+        <v>1.000863501780822</v>
       </c>
       <c r="F18">
-        <v>0.9999938954744853</v>
+        <v>0.9989533334246578</v>
       </c>
       <c r="G18">
-        <v>0.9999837214469741</v>
+        <v>1.001570006164384</v>
       </c>
       <c r="H18">
-        <v>1.000013432662646</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="I18">
-        <v>0.9999938954744853</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="J18">
-        <v>1.000024421440363</v>
+        <v>1.001570006164384</v>
       </c>
       <c r="K18">
-        <v>0.9999938954744853</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="L18">
-        <v>0.9999938954744853</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="M18">
-        <v>1.000009158457424</v>
+        <v>1.000588750616438</v>
       </c>
       <c r="N18">
-        <v>1.000009158457424</v>
+        <v>1.000588750616438</v>
       </c>
       <c r="O18">
-        <v>1.000010583192498</v>
+        <v>1.000680334337899</v>
       </c>
       <c r="P18">
-        <v>1.000004070796445</v>
+        <v>1.00026166543379</v>
       </c>
       <c r="Q18">
-        <v>1.000004070796445</v>
+        <v>1.00026166543379</v>
       </c>
       <c r="R18">
-        <v>1.000001526965955</v>
+        <v>1.000098122842466</v>
       </c>
       <c r="S18">
-        <v>1.000001526965955</v>
+        <v>1.000098122842466</v>
       </c>
       <c r="T18">
-        <v>1.00000054366224</v>
+        <v>1.000034887762557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999856985161737</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="D19">
-        <v>1.000057209768475</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="E19">
-        <v>0.9999856985161737</v>
+        <v>0.9962540142105263</v>
       </c>
       <c r="F19">
-        <v>0.9999856985161737</v>
+        <v>1.00454058</v>
       </c>
       <c r="G19">
-        <v>0.9999618615130893</v>
+        <v>0.9931891326315789</v>
       </c>
       <c r="H19">
-        <v>1.000031462464011</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="I19">
-        <v>0.9999856985161737</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="J19">
-        <v>1.000057209768475</v>
+        <v>0.9931891326315789</v>
       </c>
       <c r="K19">
-        <v>0.9999856985161737</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="L19">
-        <v>0.9999856985161737</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="M19">
-        <v>1.000021454142324</v>
+        <v>0.9974459242105264</v>
       </c>
       <c r="N19">
-        <v>1.000021454142324</v>
+        <v>0.9974459242105264</v>
       </c>
       <c r="O19">
-        <v>1.000024790249553</v>
+        <v>0.997048620877193</v>
       </c>
       <c r="P19">
-        <v>1.000009535600274</v>
+        <v>0.9988648547368421</v>
       </c>
       <c r="Q19">
-        <v>1.000009535600274</v>
+        <v>0.9988648547368421</v>
       </c>
       <c r="R19">
-        <v>1.000003576329249</v>
+        <v>0.99957432</v>
       </c>
       <c r="S19">
-        <v>1.000003576329249</v>
+        <v>0.99957432</v>
       </c>
       <c r="T19">
-        <v>1.000001271549016</v>
+        <v>0.9998486457017544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="D20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="E20">
+        <v>0.9936457931578948</v>
+      </c>
+      <c r="F20">
+        <v>1.007702070526316</v>
+      </c>
+      <c r="G20">
+        <v>0.9884468926315789</v>
+      </c>
+      <c r="H20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="I20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="J20">
+        <v>0.9884468926315789</v>
+      </c>
+      <c r="K20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="L20">
+        <v>1.002888287368421</v>
+      </c>
+      <c r="M20">
+        <v>0.9956675899999998</v>
+      </c>
+      <c r="N20">
+        <v>0.9956675899999998</v>
+      </c>
+      <c r="O20">
+        <v>0.9949936577192982</v>
+      </c>
+      <c r="P20">
+        <v>0.9980744891228067</v>
+      </c>
+      <c r="Q20">
+        <v>0.9980744891228067</v>
+      </c>
+      <c r="R20">
+        <v>0.9992779386842103</v>
+      </c>
+      <c r="S20">
+        <v>0.9992779386842103</v>
+      </c>
+      <c r="T20">
+        <v>0.9997432697368419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="D21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="E21">
+        <v>1.002180598738788</v>
+      </c>
+      <c r="F21">
+        <v>0.9973568568408632</v>
+      </c>
+      <c r="G21">
+        <v>1.003964713376434</v>
+      </c>
+      <c r="H21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="I21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="J21">
+        <v>1.003964713376434</v>
+      </c>
+      <c r="K21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="L21">
+        <v>0.9990088213878943</v>
+      </c>
+      <c r="M21">
+        <v>1.001486767382164</v>
+      </c>
+      <c r="N21">
+        <v>1.001486767382164</v>
+      </c>
+      <c r="O21">
+        <v>1.001718044501039</v>
+      </c>
+      <c r="P21">
+        <v>1.000660785384074</v>
+      </c>
+      <c r="Q21">
+        <v>1.000660785384074</v>
+      </c>
+      <c r="R21">
+        <v>1.000247794385029</v>
+      </c>
+      <c r="S21">
+        <v>1.000247794385029</v>
+      </c>
+      <c r="T21">
+        <v>1.000088105519961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="D22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="E22">
+        <v>1.000594802802129</v>
+      </c>
+      <c r="F22">
+        <v>0.9992790312211202</v>
+      </c>
+      <c r="G22">
+        <v>1.001081464766156</v>
+      </c>
+      <c r="H22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="I22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="J22">
+        <v>1.001081464766156</v>
+      </c>
+      <c r="K22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="L22">
+        <v>0.9997296356041152</v>
+      </c>
+      <c r="M22">
+        <v>1.000405550185135</v>
+      </c>
+      <c r="N22">
+        <v>1.000405550185135</v>
+      </c>
+      <c r="O22">
+        <v>1.0004686343908</v>
+      </c>
+      <c r="P22">
+        <v>1.000180245324795</v>
+      </c>
+      <c r="Q22">
+        <v>1.000180245324795</v>
+      </c>
+      <c r="R22">
+        <v>1.000067592894625</v>
+      </c>
+      <c r="S22">
+        <v>1.000067592894625</v>
+      </c>
+      <c r="T22">
+        <v>1.000024034266959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="D23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="E23">
+        <v>1.000871462401954</v>
+      </c>
+      <c r="F23">
+        <v>0.9989436836861949</v>
+      </c>
+      <c r="G23">
+        <v>1.00158447801317</v>
+      </c>
+      <c r="H23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="I23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="J23">
+        <v>1.00158447801317</v>
+      </c>
+      <c r="K23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="L23">
+        <v>0.9996038835824849</v>
+      </c>
+      <c r="M23">
+        <v>1.000594180797828</v>
+      </c>
+      <c r="N23">
+        <v>1.000594180797828</v>
+      </c>
+      <c r="O23">
+        <v>1.000686607999203</v>
+      </c>
+      <c r="P23">
+        <v>1.000264081726047</v>
+      </c>
+      <c r="Q23">
+        <v>1.000264081726047</v>
+      </c>
+      <c r="R23">
+        <v>1.000099032190156</v>
+      </c>
+      <c r="S23">
+        <v>1.000099032190156</v>
+      </c>
+      <c r="T23">
+        <v>1.000035212474796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="D24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="E24">
+        <v>1.000227815231654</v>
+      </c>
+      <c r="F24">
+        <v>0.9997238617926409</v>
+      </c>
+      <c r="G24">
+        <v>1.000414203344274</v>
+      </c>
+      <c r="H24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="I24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="J24">
+        <v>1.000414203344274</v>
+      </c>
+      <c r="K24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="L24">
+        <v>0.9998964493929572</v>
+      </c>
+      <c r="M24">
+        <v>1.000155326368615</v>
+      </c>
+      <c r="N24">
+        <v>1.000155326368615</v>
+      </c>
+      <c r="O24">
+        <v>1.000179489322962</v>
+      </c>
+      <c r="P24">
+        <v>1.000069034043396</v>
+      </c>
+      <c r="Q24">
+        <v>1.000069034043396</v>
+      </c>
+      <c r="R24">
+        <v>1.000025887880786</v>
+      </c>
+      <c r="S24">
+        <v>1.000025887880786</v>
+      </c>
+      <c r="T24">
+        <v>1.000009204757907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="D25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="E25">
+        <v>0.9946691126875767</v>
+      </c>
+      <c r="F25">
+        <v>1.006461684153397</v>
+      </c>
+      <c r="G25">
+        <v>0.9903074757539098</v>
+      </c>
+      <c r="H25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="I25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="J25">
+        <v>0.9903074757539098</v>
+      </c>
+      <c r="K25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="L25">
+        <v>1.002423139432898</v>
+      </c>
+      <c r="M25">
+        <v>0.996365307593404</v>
+      </c>
+      <c r="N25">
+        <v>0.996365307593404</v>
+      </c>
+      <c r="O25">
+        <v>0.9957999092914616</v>
+      </c>
+      <c r="P25">
+        <v>0.9983845848732354</v>
+      </c>
+      <c r="Q25">
+        <v>0.9983845848732354</v>
+      </c>
+      <c r="R25">
+        <v>0.9993942235131512</v>
+      </c>
+      <c r="S25">
+        <v>0.9993942235131512</v>
+      </c>
+      <c r="T25">
+        <v>0.9997846151489299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="D26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="E26">
+        <v>0.9985862074418604</v>
+      </c>
+      <c r="F26">
+        <v>1.001713696826491</v>
+      </c>
+      <c r="G26">
+        <v>0.9974294612688168</v>
+      </c>
+      <c r="H26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="I26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="J26">
+        <v>0.9974294612688168</v>
+      </c>
+      <c r="K26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="L26">
+        <v>1.000642642036062</v>
+      </c>
+      <c r="M26">
+        <v>0.9990360516524395</v>
+      </c>
+      <c r="N26">
+        <v>0.9990360516524395</v>
+      </c>
+      <c r="O26">
+        <v>0.9988861035822465</v>
+      </c>
+      <c r="P26">
+        <v>0.9995715817803137</v>
+      </c>
+      <c r="Q26">
+        <v>0.9995715817803137</v>
+      </c>
+      <c r="R26">
+        <v>0.9998393468442508</v>
+      </c>
+      <c r="S26">
+        <v>0.9998393468442508</v>
+      </c>
+      <c r="T26">
+        <v>0.9999428819408923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="D27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="E27">
+        <v>1.000160008983498</v>
+      </c>
+      <c r="F27">
+        <v>0.9998060410711583</v>
+      </c>
+      <c r="G27">
+        <v>1.000290931972496</v>
+      </c>
+      <c r="H27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="I27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="J27">
+        <v>1.000290931972496</v>
+      </c>
+      <c r="K27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="L27">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="M27">
+        <v>1.000109094880849</v>
+      </c>
+      <c r="N27">
+        <v>1.000109094880849</v>
+      </c>
+      <c r="O27">
+        <v>1.000126066248399</v>
+      </c>
+      <c r="P27">
+        <v>1.000048482516966</v>
+      </c>
+      <c r="Q27">
+        <v>1.000048482516966</v>
+      </c>
+      <c r="R27">
+        <v>1.000018176335025</v>
+      </c>
+      <c r="S27">
+        <v>1.000018176335025</v>
+      </c>
+      <c r="T27">
+        <v>1.00000645923246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="D28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="E28">
+        <v>0.9989622680710537</v>
+      </c>
+      <c r="F28">
+        <v>1.001257856116698</v>
+      </c>
+      <c r="G28">
+        <v>0.998113224824261</v>
+      </c>
+      <c r="H28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="I28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="J28">
+        <v>0.998113224824261</v>
+      </c>
+      <c r="K28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="L28">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="M28">
+        <v>0.9992924598665804</v>
+      </c>
+      <c r="N28">
+        <v>0.9992924598665804</v>
+      </c>
+      <c r="O28">
+        <v>0.9991823959347382</v>
+      </c>
+      <c r="P28">
+        <v>0.9996855382140203</v>
+      </c>
+      <c r="Q28">
+        <v>0.9996855382140203</v>
+      </c>
+      <c r="R28">
+        <v>0.9998820773877402</v>
+      </c>
+      <c r="S28">
+        <v>0.9998820773877402</v>
+      </c>
+      <c r="T28">
+        <v>0.9999580722897855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="D29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="E29">
+        <v>0.9985204121046662</v>
+      </c>
+      <c r="F29">
+        <v>1.001793441584459</v>
+      </c>
+      <c r="G29">
+        <v>0.9973098656866343</v>
+      </c>
+      <c r="H29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="I29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="J29">
+        <v>0.9973098656866343</v>
+      </c>
+      <c r="K29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="L29">
+        <v>1.000672536343824</v>
+      </c>
+      <c r="M29">
+        <v>0.9989912010152291</v>
+      </c>
+      <c r="N29">
+        <v>0.9989912010152291</v>
+      </c>
+      <c r="O29">
+        <v>0.9988342713783748</v>
+      </c>
+      <c r="P29">
+        <v>0.9995516461247608</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995516461247608</v>
+      </c>
+      <c r="R29">
+        <v>0.9998318686795267</v>
+      </c>
+      <c r="S29">
+        <v>0.9998318686795267</v>
+      </c>
+      <c r="T29">
+        <v>0.9999402214012053</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="D4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="E4">
-        <v>0.9976153918073414</v>
+        <v>1.000423146952147</v>
       </c>
       <c r="F4">
-        <v>1.002890437022457</v>
+        <v>0.9994870940347622</v>
       </c>
       <c r="G4">
-        <v>0.9956643448017533</v>
+        <v>1.000769358945351</v>
       </c>
       <c r="H4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="I4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="J4">
-        <v>0.9956643448017533</v>
+        <v>1.000769358945351</v>
       </c>
       <c r="K4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="L4">
-        <v>1.001083911538769</v>
+        <v>0.9998076608020819</v>
       </c>
       <c r="M4">
-        <v>0.9983741281702611</v>
+        <v>1.000288509873716</v>
       </c>
       <c r="N4">
-        <v>0.9983741281702611</v>
+        <v>1.000288509873716</v>
       </c>
       <c r="O4">
-        <v>0.9981212160492877</v>
+        <v>1.00033338889986</v>
       </c>
       <c r="P4">
-        <v>0.999277389293097</v>
+        <v>1.000128226849838</v>
       </c>
       <c r="Q4">
-        <v>0.999277389293097</v>
+        <v>1.000128226849838</v>
       </c>
       <c r="R4">
-        <v>0.9997290198545149</v>
+        <v>1.000048085337899</v>
       </c>
       <c r="S4">
-        <v>0.9997290198545149</v>
+        <v>1.000048085337899</v>
       </c>
       <c r="T4">
-        <v>0.9999036513746432</v>
+        <v>1.000017097056418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="D5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="E5">
-        <v>1.000363230511528</v>
+        <v>0.9929974386417181</v>
       </c>
       <c r="F5">
-        <v>0.9995597187463992</v>
+        <v>1.008487957807861</v>
       </c>
       <c r="G5">
-        <v>1.000660421051875</v>
+        <v>0.9872680631307793</v>
       </c>
       <c r="H5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="I5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="J5">
-        <v>1.000660421051875</v>
+        <v>0.9872680631307793</v>
       </c>
       <c r="K5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="L5">
-        <v>0.999834895158502</v>
+        <v>1.003182996314844</v>
       </c>
       <c r="M5">
-        <v>1.000247658105188</v>
+        <v>0.9952255297228119</v>
       </c>
       <c r="N5">
-        <v>1.000247658105188</v>
+        <v>0.9952255297228119</v>
       </c>
       <c r="O5">
-        <v>1.000286182240635</v>
+        <v>0.9944828326957805</v>
       </c>
       <c r="P5">
-        <v>1.000110070456293</v>
+        <v>0.9978780185868228</v>
       </c>
       <c r="Q5">
-        <v>1.000110070456293</v>
+        <v>0.9978780185868228</v>
       </c>
       <c r="R5">
-        <v>1.000041276631845</v>
+        <v>0.9992042630188283</v>
       </c>
       <c r="S5">
-        <v>1.000041276631845</v>
+        <v>0.9992042630188283</v>
       </c>
       <c r="T5">
-        <v>1.000014675964218</v>
+        <v>0.9997170747541486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="D6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="E6">
-        <v>1.001531005075255</v>
+        <v>0.9976153918073414</v>
       </c>
       <c r="F6">
-        <v>0.9981442074371726</v>
+        <v>1.002890437022457</v>
       </c>
       <c r="G6">
-        <v>1.002783669019255</v>
+        <v>0.9956643448017533</v>
       </c>
       <c r="H6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="I6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="J6">
-        <v>1.002783669019255</v>
+        <v>0.9956643448017533</v>
       </c>
       <c r="K6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="L6">
-        <v>0.9993040803342889</v>
+        <v>1.001083911538769</v>
       </c>
       <c r="M6">
-        <v>1.001043874676772</v>
+        <v>0.9983741281702611</v>
       </c>
       <c r="N6">
-        <v>1.001043874676772</v>
+        <v>0.9983741281702611</v>
       </c>
       <c r="O6">
-        <v>1.001206251476266</v>
+        <v>0.9981212160492877</v>
       </c>
       <c r="P6">
-        <v>1.000463943229277</v>
+        <v>0.999277389293097</v>
       </c>
       <c r="Q6">
-        <v>1.000463943229277</v>
+        <v>0.999277389293097</v>
       </c>
       <c r="R6">
-        <v>1.00017397750553</v>
+        <v>0.9997290198545149</v>
       </c>
       <c r="S6">
-        <v>1.00017397750553</v>
+        <v>0.9997290198545149</v>
       </c>
       <c r="T6">
-        <v>1.000061853755758</v>
+        <v>0.9999036513746432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="D7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="E7">
-        <v>1.000019190950489</v>
+        <v>1.000363230511528</v>
       </c>
       <c r="F7">
-        <v>0.9999767419877152</v>
+        <v>0.9995597187463992</v>
       </c>
       <c r="G7">
-        <v>1.000034888234707</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="H7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="I7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="J7">
-        <v>1.000034888234707</v>
+        <v>1.000660421051875</v>
       </c>
       <c r="K7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="L7">
-        <v>0.9999912783450363</v>
+        <v>0.999834895158502</v>
       </c>
       <c r="M7">
-        <v>1.000013083289872</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="N7">
-        <v>1.000013083289872</v>
+        <v>1.000247658105188</v>
       </c>
       <c r="O7">
-        <v>1.000015119176744</v>
+        <v>1.000286182240635</v>
       </c>
       <c r="P7">
-        <v>1.000005814974927</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="Q7">
-        <v>1.000005814974927</v>
+        <v>1.000110070456293</v>
       </c>
       <c r="R7">
-        <v>1.000002180817454</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="S7">
-        <v>1.000002180817454</v>
+        <v>1.000041276631845</v>
       </c>
       <c r="T7">
-        <v>1.00000077603467</v>
+        <v>1.000014675964218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="D8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="E8">
-        <v>1.000003815553753</v>
+        <v>1.001531005075255</v>
       </c>
       <c r="F8">
-        <v>0.9999953776582707</v>
+        <v>0.9981442074371726</v>
       </c>
       <c r="G8">
-        <v>1.000006934838652</v>
+        <v>1.002783669019255</v>
       </c>
       <c r="H8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="I8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="J8">
-        <v>1.000006934838652</v>
+        <v>1.002783669019255</v>
       </c>
       <c r="K8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="L8">
-        <v>0.9999982671232656</v>
+        <v>0.9993040803342889</v>
       </c>
       <c r="M8">
-        <v>1.000002600980959</v>
+        <v>1.001043874676772</v>
       </c>
       <c r="N8">
-        <v>1.000002600980959</v>
+        <v>1.001043874676772</v>
       </c>
       <c r="O8">
-        <v>1.000003005838557</v>
+        <v>1.001206251476266</v>
       </c>
       <c r="P8">
-        <v>1.000001156361728</v>
+        <v>1.000463943229277</v>
       </c>
       <c r="Q8">
-        <v>1.000001156361728</v>
+        <v>1.000463943229277</v>
       </c>
       <c r="R8">
-        <v>1.000000434052112</v>
+        <v>1.00017397750553</v>
       </c>
       <c r="S8">
-        <v>1.000000434052112</v>
+        <v>1.00017397750553</v>
       </c>
       <c r="T8">
-        <v>1.000000154903412</v>
+        <v>1.000061853755758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="D9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="E9">
-        <v>1.0000842147005</v>
+        <v>1.000019190950489</v>
       </c>
       <c r="F9">
-        <v>0.9998979232219442</v>
+        <v>0.9999767419877152</v>
       </c>
       <c r="G9">
-        <v>1.000153118317757</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="H9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="I9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="J9">
-        <v>1.000153118317757</v>
+        <v>1.000034888234707</v>
       </c>
       <c r="K9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="L9">
-        <v>0.9999617214304334</v>
+        <v>0.9999912783450363</v>
       </c>
       <c r="M9">
-        <v>1.000057419874095</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="N9">
-        <v>1.000057419874095</v>
+        <v>1.000013083289872</v>
       </c>
       <c r="O9">
-        <v>1.000066351482897</v>
+        <v>1.000015119176744</v>
       </c>
       <c r="P9">
-        <v>1.000025520392875</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="Q9">
-        <v>1.000025520392875</v>
+        <v>1.000005814974927</v>
       </c>
       <c r="R9">
-        <v>1.000009570652264</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="S9">
-        <v>1.000009570652264</v>
+        <v>1.000002180817454</v>
       </c>
       <c r="T9">
-        <v>1.000003403421917</v>
+        <v>1.00000077603467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="D10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="E10">
-        <v>1.001553971795739</v>
+        <v>1.000003815553753</v>
       </c>
       <c r="F10">
-        <v>0.9981163681590556</v>
+        <v>0.9999953776582707</v>
       </c>
       <c r="G10">
-        <v>1.002825428719375</v>
+        <v>1.000006934838652</v>
       </c>
       <c r="H10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="I10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="J10">
-        <v>1.002825428719375</v>
+        <v>1.000006934838652</v>
       </c>
       <c r="K10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="L10">
-        <v>0.9992936413809913</v>
+        <v>0.9999982671232656</v>
       </c>
       <c r="M10">
-        <v>1.001059535050183</v>
+        <v>1.000002600980959</v>
       </c>
       <c r="N10">
-        <v>1.001059535050183</v>
+        <v>1.000002600980959</v>
       </c>
       <c r="O10">
-        <v>1.001224347298702</v>
+        <v>1.000003005838557</v>
       </c>
       <c r="P10">
-        <v>1.000470903827119</v>
+        <v>1.000001156361728</v>
       </c>
       <c r="Q10">
-        <v>1.000470903827119</v>
+        <v>1.000001156361728</v>
       </c>
       <c r="R10">
-        <v>1.000176588215587</v>
+        <v>1.000000434052112</v>
       </c>
       <c r="S10">
-        <v>1.000176588215587</v>
+        <v>1.000000434052112</v>
       </c>
       <c r="T10">
-        <v>1.000062782136191</v>
+        <v>1.000000154903412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="D11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="E11">
-        <v>0.9982198895632023</v>
+        <v>1.0000842147005</v>
       </c>
       <c r="F11">
-        <v>1.002157714085841</v>
+        <v>0.9998979232219442</v>
       </c>
       <c r="G11">
-        <v>0.9967634287253719</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="H11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="I11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="J11">
-        <v>0.9967634287253719</v>
+        <v>1.000153118317757</v>
       </c>
       <c r="K11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="L11">
-        <v>1.000809140556624</v>
+        <v>0.9999617214304334</v>
       </c>
       <c r="M11">
-        <v>0.9987862846409977</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="N11">
-        <v>0.9987862846409977</v>
+        <v>1.000057419874095</v>
       </c>
       <c r="O11">
-        <v>0.9985974862817325</v>
+        <v>1.000066351482897</v>
       </c>
       <c r="P11">
-        <v>0.9994605699462064</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="Q11">
-        <v>0.9994605699462064</v>
+        <v>1.000025520392875</v>
       </c>
       <c r="R11">
-        <v>0.9997977125988107</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="S11">
-        <v>0.9997977125988107</v>
+        <v>1.000009570652264</v>
       </c>
       <c r="T11">
-        <v>0.9999280756740476</v>
+        <v>1.000003403421917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="D12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="E12">
-        <v>1.000396714589474</v>
+        <v>1.001553971795739</v>
       </c>
       <c r="F12">
-        <v>0.9995191297473706</v>
+        <v>0.9981163681590556</v>
       </c>
       <c r="G12">
-        <v>1.000721305294738</v>
+        <v>1.002825428719375</v>
       </c>
       <c r="H12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="I12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="J12">
-        <v>1.000721305294738</v>
+        <v>1.002825428719375</v>
       </c>
       <c r="K12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="L12">
-        <v>0.9998196751157897</v>
+        <v>0.9992936413809913</v>
       </c>
       <c r="M12">
-        <v>1.000270490205264</v>
+        <v>1.001059535050183</v>
       </c>
       <c r="N12">
-        <v>1.000270490205264</v>
+        <v>1.001059535050183</v>
       </c>
       <c r="O12">
-        <v>1.000312565</v>
+        <v>1.001224347298702</v>
       </c>
       <c r="P12">
-        <v>1.000120218508773</v>
+        <v>1.000470903827119</v>
       </c>
       <c r="Q12">
-        <v>1.000120218508773</v>
+        <v>1.000470903827119</v>
       </c>
       <c r="R12">
-        <v>1.000045082660527</v>
+        <v>1.000176588215587</v>
       </c>
       <c r="S12">
-        <v>1.000045082660527</v>
+        <v>1.000176588215587</v>
       </c>
       <c r="T12">
-        <v>1.000016029163158</v>
+        <v>1.000062782136191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="D13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="E13">
-        <v>0.9996943700054491</v>
+        <v>0.9982198895632023</v>
       </c>
       <c r="F13">
-        <v>1.00037046336123</v>
+        <v>1.002157714085841</v>
       </c>
       <c r="G13">
-        <v>0.9994443108028237</v>
+        <v>0.9967634287253719</v>
       </c>
       <c r="H13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="I13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="J13">
-        <v>0.9994443108028237</v>
+        <v>0.9967634287253719</v>
       </c>
       <c r="K13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="L13">
-        <v>1.00013892584912</v>
+        <v>1.000809140556624</v>
       </c>
       <c r="M13">
-        <v>0.9997916183259717</v>
+        <v>0.9987862846409977</v>
       </c>
       <c r="N13">
-        <v>0.9997916183259717</v>
+        <v>0.9987862846409977</v>
       </c>
       <c r="O13">
-        <v>0.9997592022191308</v>
+        <v>0.9985974862817325</v>
       </c>
       <c r="P13">
-        <v>0.9999073875003545</v>
+        <v>0.9994605699462064</v>
       </c>
       <c r="Q13">
-        <v>0.9999073875003545</v>
+        <v>0.9994605699462064</v>
       </c>
       <c r="R13">
-        <v>0.9999652720875458</v>
+        <v>0.9997977125988107</v>
       </c>
       <c r="S13">
-        <v>0.9999652720875458</v>
+        <v>0.9997977125988107</v>
       </c>
       <c r="T13">
-        <v>0.9999876536194771</v>
+        <v>0.9999280756740476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="D14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="E14">
-        <v>1.002684799999999</v>
+        <v>1.000396714589474</v>
       </c>
       <c r="F14">
-        <v>0.99674564</v>
+        <v>0.9995191297473706</v>
       </c>
       <c r="G14">
-        <v>1.004881500000001</v>
+        <v>1.000721305294738</v>
       </c>
       <c r="H14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="I14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="J14">
-        <v>1.004881500000001</v>
+        <v>1.000721305294738</v>
       </c>
       <c r="K14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="L14">
-        <v>0.9987796199999999</v>
+        <v>0.9998196751157897</v>
       </c>
       <c r="M14">
-        <v>1.00183056</v>
+        <v>1.000270490205264</v>
       </c>
       <c r="N14">
-        <v>1.00183056</v>
+        <v>1.000270490205264</v>
       </c>
       <c r="O14">
-        <v>1.002115306666666</v>
+        <v>1.000312565</v>
       </c>
       <c r="P14">
-        <v>1.00081358</v>
+        <v>1.000120218508773</v>
       </c>
       <c r="Q14">
-        <v>1.00081358</v>
+        <v>1.000120218508773</v>
       </c>
       <c r="R14">
-        <v>1.00030509</v>
+        <v>1.000045082660527</v>
       </c>
       <c r="S14">
-        <v>1.00030509</v>
+        <v>1.000045082660527</v>
       </c>
       <c r="T14">
-        <v>1.000108466666667</v>
+        <v>1.000016029163158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="D15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="E15">
-        <v>0.99054463</v>
+        <v>0.9996943700054491</v>
       </c>
       <c r="F15">
-        <v>1.0114611</v>
+        <v>1.00037046336123</v>
       </c>
       <c r="G15">
-        <v>0.98280841</v>
+        <v>0.9994443108028237</v>
       </c>
       <c r="H15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="I15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="J15">
-        <v>0.98280841</v>
+        <v>0.9994443108028237</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>1.00013892584912</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>0.9997916183259717</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>0.9997916183259717</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>0.9997592022191308</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>0.9999073875003545</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>0.9999073875003545</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>0.9999652720875458</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>0.9999652720875458</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>0.9999876536194771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="D16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="E16">
-        <v>0.98261561</v>
+        <v>1.002684799999999</v>
       </c>
       <c r="F16">
-        <v>1.021072</v>
+        <v>0.99674564</v>
       </c>
       <c r="G16">
-        <v>0.9683920100000001</v>
+        <v>1.004881500000001</v>
       </c>
       <c r="H16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="I16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="J16">
-        <v>0.9683920100000001</v>
+        <v>1.004881500000001</v>
       </c>
       <c r="K16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="L16">
-        <v>1.007902</v>
+        <v>0.9987796199999999</v>
       </c>
       <c r="M16">
-        <v>0.9881470050000001</v>
+        <v>1.00183056</v>
       </c>
       <c r="N16">
-        <v>0.9881470050000001</v>
+        <v>1.00183056</v>
       </c>
       <c r="O16">
-        <v>0.9863032066666667</v>
+        <v>1.002115306666666</v>
       </c>
       <c r="P16">
-        <v>0.9947320033333334</v>
+        <v>1.00081358</v>
       </c>
       <c r="Q16">
-        <v>0.9947320033333334</v>
+        <v>1.00081358</v>
       </c>
       <c r="R16">
-        <v>0.9980245025000001</v>
+        <v>1.00030509</v>
       </c>
       <c r="S16">
-        <v>0.9980245025000001</v>
+        <v>1.00030509</v>
       </c>
       <c r="T16">
-        <v>0.9992976033333333</v>
+        <v>1.000108466666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="E17">
-        <v>0.9933389299999998</v>
+        <v>0.99054463</v>
       </c>
       <c r="F17">
-        <v>1.008074</v>
+        <v>1.0114611</v>
       </c>
       <c r="G17">
-        <v>0.98788896</v>
+        <v>0.98280841</v>
       </c>
       <c r="H17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="I17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="J17">
-        <v>0.98788896</v>
+        <v>0.98280841</v>
       </c>
       <c r="K17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0030278</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.99545838</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.99545838</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.9947518966666666</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9979815200000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9979815200000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.99924309</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.99924309</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9997308816666667</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="D18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="E18">
-        <v>1.000863501780822</v>
+        <v>0.98261561</v>
       </c>
       <c r="F18">
-        <v>0.9989533334246578</v>
+        <v>1.021072</v>
       </c>
       <c r="G18">
-        <v>1.001570006164384</v>
+        <v>0.9683920100000001</v>
       </c>
       <c r="H18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="I18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="J18">
-        <v>1.001570006164384</v>
+        <v>0.9683920100000001</v>
       </c>
       <c r="K18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="L18">
-        <v>0.9996074950684928</v>
+        <v>1.007902</v>
       </c>
       <c r="M18">
-        <v>1.000588750616438</v>
+        <v>0.9881470050000001</v>
       </c>
       <c r="N18">
-        <v>1.000588750616438</v>
+        <v>0.9881470050000001</v>
       </c>
       <c r="O18">
-        <v>1.000680334337899</v>
+        <v>0.9863032066666667</v>
       </c>
       <c r="P18">
-        <v>1.00026166543379</v>
+        <v>0.9947320033333334</v>
       </c>
       <c r="Q18">
-        <v>1.00026166543379</v>
+        <v>0.9947320033333334</v>
       </c>
       <c r="R18">
-        <v>1.000098122842466</v>
+        <v>0.9980245025000001</v>
       </c>
       <c r="S18">
-        <v>1.000098122842466</v>
+        <v>0.9980245025000001</v>
       </c>
       <c r="T18">
-        <v>1.000034887762557</v>
+        <v>0.9992976033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="D19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="E19">
-        <v>0.9962540142105263</v>
+        <v>0.9933389299999998</v>
       </c>
       <c r="F19">
-        <v>1.00454058</v>
+        <v>1.008074</v>
       </c>
       <c r="G19">
-        <v>0.9931891326315789</v>
+        <v>0.98788896</v>
       </c>
       <c r="H19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="I19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="J19">
-        <v>0.9931891326315789</v>
+        <v>0.98788896</v>
       </c>
       <c r="K19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="L19">
-        <v>1.001702715789474</v>
+        <v>1.0030278</v>
       </c>
       <c r="M19">
-        <v>0.9974459242105264</v>
+        <v>0.99545838</v>
       </c>
       <c r="N19">
-        <v>0.9974459242105264</v>
+        <v>0.99545838</v>
       </c>
       <c r="O19">
-        <v>0.997048620877193</v>
+        <v>0.9947518966666666</v>
       </c>
       <c r="P19">
-        <v>0.9988648547368421</v>
+        <v>0.9979815200000001</v>
       </c>
       <c r="Q19">
-        <v>0.9988648547368421</v>
+        <v>0.9979815200000001</v>
       </c>
       <c r="R19">
-        <v>0.99957432</v>
+        <v>0.99924309</v>
       </c>
       <c r="S19">
-        <v>0.99957432</v>
+        <v>0.99924309</v>
       </c>
       <c r="T19">
-        <v>0.9998486457017544</v>
+        <v>0.9997308816666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="D20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="E20">
-        <v>0.9936457931578948</v>
+        <v>1.000863501780822</v>
       </c>
       <c r="F20">
-        <v>1.007702070526316</v>
+        <v>0.9989533334246578</v>
       </c>
       <c r="G20">
-        <v>0.9884468926315789</v>
+        <v>1.001570006164384</v>
       </c>
       <c r="H20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="I20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="J20">
-        <v>0.9884468926315789</v>
+        <v>1.001570006164384</v>
       </c>
       <c r="K20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="L20">
-        <v>1.002888287368421</v>
+        <v>0.9996074950684928</v>
       </c>
       <c r="M20">
-        <v>0.9956675899999998</v>
+        <v>1.000588750616438</v>
       </c>
       <c r="N20">
-        <v>0.9956675899999998</v>
+        <v>1.000588750616438</v>
       </c>
       <c r="O20">
-        <v>0.9949936577192982</v>
+        <v>1.000680334337899</v>
       </c>
       <c r="P20">
-        <v>0.9980744891228067</v>
+        <v>1.00026166543379</v>
       </c>
       <c r="Q20">
-        <v>0.9980744891228067</v>
+        <v>1.00026166543379</v>
       </c>
       <c r="R20">
-        <v>0.9992779386842103</v>
+        <v>1.000098122842466</v>
       </c>
       <c r="S20">
-        <v>0.9992779386842103</v>
+        <v>1.000098122842466</v>
       </c>
       <c r="T20">
-        <v>0.9997432697368419</v>
+        <v>1.000034887762557</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="D21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="E21">
-        <v>1.002180598738788</v>
+        <v>0.9962540142105263</v>
       </c>
       <c r="F21">
-        <v>0.9973568568408632</v>
+        <v>1.00454058</v>
       </c>
       <c r="G21">
-        <v>1.003964713376434</v>
+        <v>0.9931891326315789</v>
       </c>
       <c r="H21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="I21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="J21">
-        <v>1.003964713376434</v>
+        <v>0.9931891326315789</v>
       </c>
       <c r="K21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="L21">
-        <v>0.9990088213878943</v>
+        <v>1.001702715789474</v>
       </c>
       <c r="M21">
-        <v>1.001486767382164</v>
+        <v>0.9974459242105264</v>
       </c>
       <c r="N21">
-        <v>1.001486767382164</v>
+        <v>0.9974459242105264</v>
       </c>
       <c r="O21">
-        <v>1.001718044501039</v>
+        <v>0.997048620877193</v>
       </c>
       <c r="P21">
-        <v>1.000660785384074</v>
+        <v>0.9988648547368421</v>
       </c>
       <c r="Q21">
-        <v>1.000660785384074</v>
+        <v>0.9988648547368421</v>
       </c>
       <c r="R21">
-        <v>1.000247794385029</v>
+        <v>0.99957432</v>
       </c>
       <c r="S21">
-        <v>1.000247794385029</v>
+        <v>0.99957432</v>
       </c>
       <c r="T21">
-        <v>1.000088105519961</v>
+        <v>0.9998486457017544</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="D22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="E22">
-        <v>1.000594802802129</v>
+        <v>0.9936457931578948</v>
       </c>
       <c r="F22">
-        <v>0.9992790312211202</v>
+        <v>1.007702070526316</v>
       </c>
       <c r="G22">
-        <v>1.001081464766156</v>
+        <v>0.9884468926315789</v>
       </c>
       <c r="H22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="I22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="J22">
-        <v>1.001081464766156</v>
+        <v>0.9884468926315789</v>
       </c>
       <c r="K22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="L22">
-        <v>0.9997296356041152</v>
+        <v>1.002888287368421</v>
       </c>
       <c r="M22">
-        <v>1.000405550185135</v>
+        <v>0.9956675899999998</v>
       </c>
       <c r="N22">
-        <v>1.000405550185135</v>
+        <v>0.9956675899999998</v>
       </c>
       <c r="O22">
-        <v>1.0004686343908</v>
+        <v>0.9949936577192982</v>
       </c>
       <c r="P22">
-        <v>1.000180245324795</v>
+        <v>0.9980744891228067</v>
       </c>
       <c r="Q22">
-        <v>1.000180245324795</v>
+        <v>0.9980744891228067</v>
       </c>
       <c r="R22">
-        <v>1.000067592894625</v>
+        <v>0.9992779386842103</v>
       </c>
       <c r="S22">
-        <v>1.000067592894625</v>
+        <v>0.9992779386842103</v>
       </c>
       <c r="T22">
-        <v>1.000024034266959</v>
+        <v>0.9997432697368419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="D23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="E23">
-        <v>1.000871462401954</v>
+        <v>1.002180598738788</v>
       </c>
       <c r="F23">
-        <v>0.9989436836861949</v>
+        <v>0.9973568568408632</v>
       </c>
       <c r="G23">
-        <v>1.00158447801317</v>
+        <v>1.003964713376434</v>
       </c>
       <c r="H23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="I23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="J23">
-        <v>1.00158447801317</v>
+        <v>1.003964713376434</v>
       </c>
       <c r="K23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="L23">
-        <v>0.9996038835824849</v>
+        <v>0.9990088213878943</v>
       </c>
       <c r="M23">
-        <v>1.000594180797828</v>
+        <v>1.001486767382164</v>
       </c>
       <c r="N23">
-        <v>1.000594180797828</v>
+        <v>1.001486767382164</v>
       </c>
       <c r="O23">
-        <v>1.000686607999203</v>
+        <v>1.001718044501039</v>
       </c>
       <c r="P23">
-        <v>1.000264081726047</v>
+        <v>1.000660785384074</v>
       </c>
       <c r="Q23">
-        <v>1.000264081726047</v>
+        <v>1.000660785384074</v>
       </c>
       <c r="R23">
-        <v>1.000099032190156</v>
+        <v>1.000247794385029</v>
       </c>
       <c r="S23">
-        <v>1.000099032190156</v>
+        <v>1.000247794385029</v>
       </c>
       <c r="T23">
-        <v>1.000035212474796</v>
+        <v>1.000088105519961</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="D24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="E24">
-        <v>1.000227815231654</v>
+        <v>1.000594802802129</v>
       </c>
       <c r="F24">
-        <v>0.9997238617926409</v>
+        <v>0.9992790312211202</v>
       </c>
       <c r="G24">
-        <v>1.000414203344274</v>
+        <v>1.001081464766156</v>
       </c>
       <c r="H24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="I24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="J24">
-        <v>1.000414203344274</v>
+        <v>1.001081464766156</v>
       </c>
       <c r="K24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="L24">
-        <v>0.9998964493929572</v>
+        <v>0.9997296356041152</v>
       </c>
       <c r="M24">
-        <v>1.000155326368615</v>
+        <v>1.000405550185135</v>
       </c>
       <c r="N24">
-        <v>1.000155326368615</v>
+        <v>1.000405550185135</v>
       </c>
       <c r="O24">
-        <v>1.000179489322962</v>
+        <v>1.0004686343908</v>
       </c>
       <c r="P24">
-        <v>1.000069034043396</v>
+        <v>1.000180245324795</v>
       </c>
       <c r="Q24">
-        <v>1.000069034043396</v>
+        <v>1.000180245324795</v>
       </c>
       <c r="R24">
-        <v>1.000025887880786</v>
+        <v>1.000067592894625</v>
       </c>
       <c r="S24">
-        <v>1.000025887880786</v>
+        <v>1.000067592894625</v>
       </c>
       <c r="T24">
-        <v>1.000009204757907</v>
+        <v>1.000024034266959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="D25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="E25">
-        <v>0.9946691126875767</v>
+        <v>1.000871462401954</v>
       </c>
       <c r="F25">
-        <v>1.006461684153397</v>
+        <v>0.9989436836861949</v>
       </c>
       <c r="G25">
-        <v>0.9903074757539098</v>
+        <v>1.00158447801317</v>
       </c>
       <c r="H25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="I25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="J25">
-        <v>0.9903074757539098</v>
+        <v>1.00158447801317</v>
       </c>
       <c r="K25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="L25">
-        <v>1.002423139432898</v>
+        <v>0.9996038835824849</v>
       </c>
       <c r="M25">
-        <v>0.996365307593404</v>
+        <v>1.000594180797828</v>
       </c>
       <c r="N25">
-        <v>0.996365307593404</v>
+        <v>1.000594180797828</v>
       </c>
       <c r="O25">
-        <v>0.9957999092914616</v>
+        <v>1.000686607999203</v>
       </c>
       <c r="P25">
-        <v>0.9983845848732354</v>
+        <v>1.000264081726047</v>
       </c>
       <c r="Q25">
-        <v>0.9983845848732354</v>
+        <v>1.000264081726047</v>
       </c>
       <c r="R25">
-        <v>0.9993942235131512</v>
+        <v>1.000099032190156</v>
       </c>
       <c r="S25">
-        <v>0.9993942235131512</v>
+        <v>1.000099032190156</v>
       </c>
       <c r="T25">
-        <v>0.9997846151489299</v>
+        <v>1.000035212474796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="D26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="E26">
-        <v>0.9985862074418604</v>
+        <v>1.000227815231654</v>
       </c>
       <c r="F26">
-        <v>1.001713696826491</v>
+        <v>0.9997238617926409</v>
       </c>
       <c r="G26">
-        <v>0.9974294612688168</v>
+        <v>1.000414203344274</v>
       </c>
       <c r="H26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="I26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="J26">
-        <v>0.9974294612688168</v>
+        <v>1.000414203344274</v>
       </c>
       <c r="K26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="L26">
-        <v>1.000642642036062</v>
+        <v>0.9998964493929572</v>
       </c>
       <c r="M26">
-        <v>0.9990360516524395</v>
+        <v>1.000155326368615</v>
       </c>
       <c r="N26">
-        <v>0.9990360516524395</v>
+        <v>1.000155326368615</v>
       </c>
       <c r="O26">
-        <v>0.9988861035822465</v>
+        <v>1.000179489322962</v>
       </c>
       <c r="P26">
-        <v>0.9995715817803137</v>
+        <v>1.000069034043396</v>
       </c>
       <c r="Q26">
-        <v>0.9995715817803137</v>
+        <v>1.000069034043396</v>
       </c>
       <c r="R26">
-        <v>0.9998393468442508</v>
+        <v>1.000025887880786</v>
       </c>
       <c r="S26">
-        <v>0.9998393468442508</v>
+        <v>1.000025887880786</v>
       </c>
       <c r="T26">
-        <v>0.9999428819408923</v>
+        <v>1.000009204757907</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="D27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="E27">
-        <v>1.000160008983498</v>
+        <v>0.9946691126875767</v>
       </c>
       <c r="F27">
-        <v>0.9998060410711583</v>
+        <v>1.006461684153397</v>
       </c>
       <c r="G27">
-        <v>1.000290931972496</v>
+        <v>0.9903074757539098</v>
       </c>
       <c r="H27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="I27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="J27">
-        <v>1.000290931972496</v>
+        <v>0.9903074757539098</v>
       </c>
       <c r="K27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="L27">
-        <v>0.9999272577892019</v>
+        <v>1.002423139432898</v>
       </c>
       <c r="M27">
-        <v>1.000109094880849</v>
+        <v>0.996365307593404</v>
       </c>
       <c r="N27">
-        <v>1.000109094880849</v>
+        <v>0.996365307593404</v>
       </c>
       <c r="O27">
-        <v>1.000126066248399</v>
+        <v>0.9957999092914616</v>
       </c>
       <c r="P27">
-        <v>1.000048482516966</v>
+        <v>0.9983845848732354</v>
       </c>
       <c r="Q27">
-        <v>1.000048482516966</v>
+        <v>0.9983845848732354</v>
       </c>
       <c r="R27">
-        <v>1.000018176335025</v>
+        <v>0.9993942235131512</v>
       </c>
       <c r="S27">
-        <v>1.000018176335025</v>
+        <v>0.9993942235131512</v>
       </c>
       <c r="T27">
-        <v>1.00000645923246</v>
+        <v>0.9997846151489299</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="D28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="E28">
-        <v>0.9989622680710537</v>
+        <v>0.9985862074418604</v>
       </c>
       <c r="F28">
-        <v>1.001257856116698</v>
+        <v>1.001713696826491</v>
       </c>
       <c r="G28">
-        <v>0.998113224824261</v>
+        <v>0.9974294612688168</v>
       </c>
       <c r="H28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="I28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="J28">
-        <v>0.998113224824261</v>
+        <v>0.9974294612688168</v>
       </c>
       <c r="K28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="L28">
-        <v>1.0004716949089</v>
+        <v>1.000642642036062</v>
       </c>
       <c r="M28">
-        <v>0.9992924598665804</v>
+        <v>0.9990360516524395</v>
       </c>
       <c r="N28">
-        <v>0.9992924598665804</v>
+        <v>0.9990360516524395</v>
       </c>
       <c r="O28">
-        <v>0.9991823959347382</v>
+        <v>0.9988861035822465</v>
       </c>
       <c r="P28">
-        <v>0.9996855382140203</v>
+        <v>0.9995715817803137</v>
       </c>
       <c r="Q28">
-        <v>0.9996855382140203</v>
+        <v>0.9995715817803137</v>
       </c>
       <c r="R28">
-        <v>0.9998820773877402</v>
+        <v>0.9998393468442508</v>
       </c>
       <c r="S28">
-        <v>0.9998820773877402</v>
+        <v>0.9998393468442508</v>
       </c>
       <c r="T28">
-        <v>0.9999580722897855</v>
+        <v>0.9999428819408923</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="D29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="E29">
+        <v>1.000160008983498</v>
+      </c>
+      <c r="F29">
+        <v>0.9998060410711583</v>
+      </c>
+      <c r="G29">
+        <v>1.000290931972496</v>
+      </c>
+      <c r="H29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="I29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="J29">
+        <v>1.000290931972496</v>
+      </c>
+      <c r="K29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="L29">
+        <v>0.9999272577892019</v>
+      </c>
+      <c r="M29">
+        <v>1.000109094880849</v>
+      </c>
+      <c r="N29">
+        <v>1.000109094880849</v>
+      </c>
+      <c r="O29">
+        <v>1.000126066248399</v>
+      </c>
+      <c r="P29">
+        <v>1.000048482516966</v>
+      </c>
+      <c r="Q29">
+        <v>1.000048482516966</v>
+      </c>
+      <c r="R29">
+        <v>1.000018176335025</v>
+      </c>
+      <c r="S29">
+        <v>1.000018176335025</v>
+      </c>
+      <c r="T29">
+        <v>1.00000645923246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="D30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="E30">
+        <v>0.9989622680710537</v>
+      </c>
+      <c r="F30">
+        <v>1.001257856116698</v>
+      </c>
+      <c r="G30">
+        <v>0.998113224824261</v>
+      </c>
+      <c r="H30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="I30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="J30">
+        <v>0.998113224824261</v>
+      </c>
+      <c r="K30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="L30">
+        <v>1.0004716949089</v>
+      </c>
+      <c r="M30">
+        <v>0.9992924598665804</v>
+      </c>
+      <c r="N30">
+        <v>0.9992924598665804</v>
+      </c>
+      <c r="O30">
+        <v>0.9991823959347382</v>
+      </c>
+      <c r="P30">
+        <v>0.9996855382140203</v>
+      </c>
+      <c r="Q30">
+        <v>0.9996855382140203</v>
+      </c>
+      <c r="R30">
+        <v>0.9998820773877402</v>
+      </c>
+      <c r="S30">
+        <v>0.9998820773877402</v>
+      </c>
+      <c r="T30">
+        <v>0.9999580722897855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000672536343824</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000672536343824</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9985204121046662</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001793441584459</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9973098656866343</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000672536343824</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000672536343824</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9973098656866343</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000672536343824</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000672536343824</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9989912010152291</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9989912010152291</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9988342713783748</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9995516461247608</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9995516461247608</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9998318686795267</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9998318686795267</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999402214012053</v>
       </c>
     </row>
